--- a/generated_data/Nov2025_Rollover_Data.xlsx
+++ b/generated_data/Nov2025_Rollover_Data.xlsx
@@ -8,13 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="Rollover Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Long Rolls" sheetId="2" r:id="rId2"/>
+    <sheet name="Short Rolls" sheetId="3" r:id="rId3"/>
+    <sheet name="Short Covering" sheetId="4" r:id="rId4"/>
+    <sheet name="Long Unwind" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="247">
   <si>
     <t>Sectoral Index</t>
   </si>
@@ -1206,7 +1210,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
@@ -9183,7 +9187,3653 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L209">
+  <conditionalFormatting sqref="A6:L213">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($L6&lt;0, $J6&gt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($L6&lt;0, $J6&lt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($L6&gt;0, $J6&lt;0, $K6&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>6081.5</v>
+      </c>
+      <c r="D6">
+        <v>6110.5</v>
+      </c>
+      <c r="E6">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>94.37</v>
+      </c>
+      <c r="G6">
+        <v>90.15000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.41</v>
+      </c>
+      <c r="I6">
+        <v>-0.25</v>
+      </c>
+      <c r="J6">
+        <v>4.22</v>
+      </c>
+      <c r="K6">
+        <v>0.66</v>
+      </c>
+      <c r="L6">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>110.21</v>
+      </c>
+      <c r="D7">
+        <v>110.99</v>
+      </c>
+      <c r="E7">
+        <v>0.78</v>
+      </c>
+      <c r="F7">
+        <v>96.47</v>
+      </c>
+      <c r="G7">
+        <v>96.2</v>
+      </c>
+      <c r="H7">
+        <v>0.64</v>
+      </c>
+      <c r="I7">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.27</v>
+      </c>
+      <c r="K7">
+        <v>0.08</v>
+      </c>
+      <c r="L7">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1285.3</v>
+      </c>
+      <c r="D8">
+        <v>1292.4</v>
+      </c>
+      <c r="E8">
+        <v>7.1</v>
+      </c>
+      <c r="F8">
+        <v>97.28</v>
+      </c>
+      <c r="G8">
+        <v>92.97</v>
+      </c>
+      <c r="H8">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.47</v>
+      </c>
+      <c r="J8">
+        <v>4.32</v>
+      </c>
+      <c r="K8">
+        <v>0.23</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>839.9</v>
+      </c>
+      <c r="D9">
+        <v>844.05</v>
+      </c>
+      <c r="E9">
+        <v>4.15</v>
+      </c>
+      <c r="F9">
+        <v>93.55</v>
+      </c>
+      <c r="G9">
+        <v>92.61</v>
+      </c>
+      <c r="H9">
+        <v>0.73</v>
+      </c>
+      <c r="I9">
+        <v>0.6</v>
+      </c>
+      <c r="J9">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.13</v>
+      </c>
+      <c r="L9">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>570.35</v>
+      </c>
+      <c r="D10">
+        <v>573.4</v>
+      </c>
+      <c r="E10">
+        <v>3.05</v>
+      </c>
+      <c r="F10">
+        <v>95.97</v>
+      </c>
+      <c r="G10">
+        <v>94.58</v>
+      </c>
+      <c r="H10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.63</v>
+      </c>
+      <c r="J10">
+        <v>1.39</v>
+      </c>
+      <c r="K10">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L10">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>3855.1</v>
+      </c>
+      <c r="D11">
+        <v>3881.6</v>
+      </c>
+      <c r="E11">
+        <v>26.5</v>
+      </c>
+      <c r="F11">
+        <v>94.91</v>
+      </c>
+      <c r="G11">
+        <v>93.59999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.58</v>
+      </c>
+      <c r="I11">
+        <v>0.48</v>
+      </c>
+      <c r="J11">
+        <v>1.31</v>
+      </c>
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+      <c r="L11">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>1483.9</v>
+      </c>
+      <c r="D12">
+        <v>1492.1</v>
+      </c>
+      <c r="E12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="F12">
+        <v>96.87</v>
+      </c>
+      <c r="G12">
+        <v>94.15000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.74</v>
+      </c>
+      <c r="I12">
+        <v>0.52</v>
+      </c>
+      <c r="J12">
+        <v>2.73</v>
+      </c>
+      <c r="K12">
+        <v>0.22</v>
+      </c>
+      <c r="L12">
+        <v>4.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13">
+        <v>971.5</v>
+      </c>
+      <c r="D13">
+        <v>977.15</v>
+      </c>
+      <c r="E13">
+        <v>5.65</v>
+      </c>
+      <c r="F13">
+        <v>98.44</v>
+      </c>
+      <c r="G13">
+        <v>96.68000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.65</v>
+      </c>
+      <c r="I13">
+        <v>0.63</v>
+      </c>
+      <c r="J13">
+        <v>1.76</v>
+      </c>
+      <c r="K13">
+        <v>0.02</v>
+      </c>
+      <c r="L13">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14">
+        <v>1011.6</v>
+      </c>
+      <c r="D14">
+        <v>1017.3</v>
+      </c>
+      <c r="E14">
+        <v>5.7</v>
+      </c>
+      <c r="F14">
+        <v>94.45</v>
+      </c>
+      <c r="G14">
+        <v>94.18000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.75</v>
+      </c>
+      <c r="I14">
+        <v>0.67</v>
+      </c>
+      <c r="J14">
+        <v>0.26</v>
+      </c>
+      <c r="K14">
+        <v>0.08</v>
+      </c>
+      <c r="L14">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15">
+        <v>355.85</v>
+      </c>
+      <c r="D15">
+        <v>357.9</v>
+      </c>
+      <c r="E15">
+        <v>2.05</v>
+      </c>
+      <c r="F15">
+        <v>92.8</v>
+      </c>
+      <c r="G15">
+        <v>82.70999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.7</v>
+      </c>
+      <c r="I15">
+        <v>0.24</v>
+      </c>
+      <c r="J15">
+        <v>10.1</v>
+      </c>
+      <c r="K15">
+        <v>0.47</v>
+      </c>
+      <c r="L15">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16">
+        <v>1293</v>
+      </c>
+      <c r="D16">
+        <v>1298.5</v>
+      </c>
+      <c r="E16">
+        <v>5.5</v>
+      </c>
+      <c r="F16">
+        <v>94.48</v>
+      </c>
+      <c r="G16">
+        <v>89.70999999999999</v>
+      </c>
+      <c r="H16">
+        <v>0.7</v>
+      </c>
+      <c r="I16">
+        <v>0.54</v>
+      </c>
+      <c r="J16">
+        <v>4.77</v>
+      </c>
+      <c r="K16">
+        <v>0.17</v>
+      </c>
+      <c r="L16">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>1144.5</v>
+      </c>
+      <c r="D17">
+        <v>1151.6</v>
+      </c>
+      <c r="E17">
+        <v>7.1</v>
+      </c>
+      <c r="F17">
+        <v>90.64</v>
+      </c>
+      <c r="G17">
+        <v>88.86</v>
+      </c>
+      <c r="H17">
+        <v>0.61</v>
+      </c>
+      <c r="I17">
+        <v>0.24</v>
+      </c>
+      <c r="J17">
+        <v>1.78</v>
+      </c>
+      <c r="K17">
+        <v>0.37</v>
+      </c>
+      <c r="L17">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>731.35</v>
+      </c>
+      <c r="D18">
+        <v>736.9</v>
+      </c>
+      <c r="E18">
+        <v>5.55</v>
+      </c>
+      <c r="F18">
+        <v>98.78</v>
+      </c>
+      <c r="G18">
+        <v>96.95999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.77</v>
+      </c>
+      <c r="I18">
+        <v>0.35</v>
+      </c>
+      <c r="J18">
+        <v>1.82</v>
+      </c>
+      <c r="K18">
+        <v>0.42</v>
+      </c>
+      <c r="L18">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19">
+        <v>1177.7</v>
+      </c>
+      <c r="D19">
+        <v>1183.6</v>
+      </c>
+      <c r="E19">
+        <v>5.9</v>
+      </c>
+      <c r="F19">
+        <v>97.88</v>
+      </c>
+      <c r="G19">
+        <v>96.76000000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.65</v>
+      </c>
+      <c r="I19">
+        <v>0.55</v>
+      </c>
+      <c r="J19">
+        <v>1.13</v>
+      </c>
+      <c r="K19">
+        <v>0.11</v>
+      </c>
+      <c r="L19">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <v>345.45</v>
+      </c>
+      <c r="D20">
+        <v>347.1</v>
+      </c>
+      <c r="E20">
+        <v>1.65</v>
+      </c>
+      <c r="F20">
+        <v>98.36</v>
+      </c>
+      <c r="G20">
+        <v>95.29000000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.59</v>
+      </c>
+      <c r="I20">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J20">
+        <v>3.07</v>
+      </c>
+      <c r="K20">
+        <v>0.03</v>
+      </c>
+      <c r="L20">
+        <v>10.51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21">
+        <v>612.25</v>
+      </c>
+      <c r="D21">
+        <v>615.85</v>
+      </c>
+      <c r="E21">
+        <v>3.6</v>
+      </c>
+      <c r="F21">
+        <v>98.11</v>
+      </c>
+      <c r="G21">
+        <v>94.04000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.66</v>
+      </c>
+      <c r="I21">
+        <v>0.54</v>
+      </c>
+      <c r="J21">
+        <v>4.08</v>
+      </c>
+      <c r="K21">
+        <v>0.12</v>
+      </c>
+      <c r="L21">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>279.05</v>
+      </c>
+      <c r="D22">
+        <v>281.1</v>
+      </c>
+      <c r="E22">
+        <v>2.05</v>
+      </c>
+      <c r="F22">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G22">
+        <v>88.93000000000001</v>
+      </c>
+      <c r="H22">
+        <v>0.73</v>
+      </c>
+      <c r="I22">
+        <v>0.57</v>
+      </c>
+      <c r="J22">
+        <v>7.67</v>
+      </c>
+      <c r="K22">
+        <v>0.17</v>
+      </c>
+      <c r="L22">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23">
+        <v>9867</v>
+      </c>
+      <c r="D23">
+        <v>9916</v>
+      </c>
+      <c r="E23">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>90.81</v>
+      </c>
+      <c r="G23">
+        <v>88.48999999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.67</v>
+      </c>
+      <c r="I23">
+        <v>0.53</v>
+      </c>
+      <c r="J23">
+        <v>2.32</v>
+      </c>
+      <c r="K23">
+        <v>0.14</v>
+      </c>
+      <c r="L23">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24">
+        <v>1697.9</v>
+      </c>
+      <c r="D24">
+        <v>1710.1</v>
+      </c>
+      <c r="E24">
+        <v>12.2</v>
+      </c>
+      <c r="F24">
+        <v>95.22</v>
+      </c>
+      <c r="G24">
+        <v>88.31999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.48</v>
+      </c>
+      <c r="J24">
+        <v>6.89</v>
+      </c>
+      <c r="K24">
+        <v>0.32</v>
+      </c>
+      <c r="L24">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25">
+        <v>838.25</v>
+      </c>
+      <c r="D25">
+        <v>843.45</v>
+      </c>
+      <c r="E25">
+        <v>5.2</v>
+      </c>
+      <c r="F25">
+        <v>95.7</v>
+      </c>
+      <c r="G25">
+        <v>95.58</v>
+      </c>
+      <c r="H25">
+        <v>0.47</v>
+      </c>
+      <c r="I25">
+        <v>0.42</v>
+      </c>
+      <c r="J25">
+        <v>0.12</v>
+      </c>
+      <c r="K25">
+        <v>0.05</v>
+      </c>
+      <c r="L25">
+        <v>15.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26">
+        <v>1831.7</v>
+      </c>
+      <c r="D26">
+        <v>1843.7</v>
+      </c>
+      <c r="E26">
+        <v>12</v>
+      </c>
+      <c r="F26">
+        <v>96.2</v>
+      </c>
+      <c r="G26">
+        <v>92.5</v>
+      </c>
+      <c r="H26">
+        <v>0.7</v>
+      </c>
+      <c r="I26">
+        <v>0.45</v>
+      </c>
+      <c r="J26">
+        <v>3.7</v>
+      </c>
+      <c r="K26">
+        <v>0.25</v>
+      </c>
+      <c r="L26">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27">
+        <v>1601.1</v>
+      </c>
+      <c r="D27">
+        <v>1610.2</v>
+      </c>
+      <c r="E27">
+        <v>9.1</v>
+      </c>
+      <c r="F27">
+        <v>96.44</v>
+      </c>
+      <c r="G27">
+        <v>93.89</v>
+      </c>
+      <c r="H27">
+        <v>0.76</v>
+      </c>
+      <c r="I27">
+        <v>0.33</v>
+      </c>
+      <c r="J27">
+        <v>2.55</v>
+      </c>
+      <c r="K27">
+        <v>0.42</v>
+      </c>
+      <c r="L27">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>1530.6</v>
+      </c>
+      <c r="D28">
+        <v>1538.9</v>
+      </c>
+      <c r="E28">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F28">
+        <v>96.36</v>
+      </c>
+      <c r="G28">
+        <v>92.47</v>
+      </c>
+      <c r="H28">
+        <v>0.57</v>
+      </c>
+      <c r="I28">
+        <v>0.04</v>
+      </c>
+      <c r="J28">
+        <v>3.89</v>
+      </c>
+      <c r="K28">
+        <v>0.53</v>
+      </c>
+      <c r="L28">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>147</v>
+      </c>
+      <c r="C29">
+        <v>5833</v>
+      </c>
+      <c r="D29">
+        <v>5875.5</v>
+      </c>
+      <c r="E29">
+        <v>42.5</v>
+      </c>
+      <c r="F29">
+        <v>95.62</v>
+      </c>
+      <c r="G29">
+        <v>94.42</v>
+      </c>
+      <c r="H29">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I29">
+        <v>-0.12</v>
+      </c>
+      <c r="J29">
+        <v>1.2</v>
+      </c>
+      <c r="K29">
+        <v>0.8</v>
+      </c>
+      <c r="L29">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30">
+        <v>3119.2</v>
+      </c>
+      <c r="D30">
+        <v>3135.5</v>
+      </c>
+      <c r="E30">
+        <v>16.3</v>
+      </c>
+      <c r="F30">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="G30">
+        <v>93.06</v>
+      </c>
+      <c r="H30">
+        <v>0.73</v>
+      </c>
+      <c r="I30">
+        <v>0.37</v>
+      </c>
+      <c r="J30">
+        <v>4.01</v>
+      </c>
+      <c r="K30">
+        <v>0.36</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31">
+        <v>1494.7</v>
+      </c>
+      <c r="D31">
+        <v>1502.1</v>
+      </c>
+      <c r="E31">
+        <v>7.4</v>
+      </c>
+      <c r="F31">
+        <v>98.17</v>
+      </c>
+      <c r="G31">
+        <v>89.17</v>
+      </c>
+      <c r="H31">
+        <v>0.68</v>
+      </c>
+      <c r="I31">
+        <v>0.53</v>
+      </c>
+      <c r="J31">
+        <v>9</v>
+      </c>
+      <c r="K31">
+        <v>0.15</v>
+      </c>
+      <c r="L31">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32">
+        <v>4311.3</v>
+      </c>
+      <c r="D32">
+        <v>4341.3</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>92.25</v>
+      </c>
+      <c r="G32">
+        <v>90.5</v>
+      </c>
+      <c r="H32">
+        <v>0.62</v>
+      </c>
+      <c r="I32">
+        <v>0.36</v>
+      </c>
+      <c r="J32">
+        <v>1.75</v>
+      </c>
+      <c r="K32">
+        <v>0.26</v>
+      </c>
+      <c r="L32">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33">
+        <v>3181.1</v>
+      </c>
+      <c r="D33">
+        <v>3200.7</v>
+      </c>
+      <c r="E33">
+        <v>19.6</v>
+      </c>
+      <c r="F33">
+        <v>97.68000000000001</v>
+      </c>
+      <c r="G33">
+        <v>90.34</v>
+      </c>
+      <c r="H33">
+        <v>0.7</v>
+      </c>
+      <c r="I33">
+        <v>0.6</v>
+      </c>
+      <c r="J33">
+        <v>7.34</v>
+      </c>
+      <c r="K33">
+        <v>0.1</v>
+      </c>
+      <c r="L33">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C34">
+        <v>3996.7</v>
+      </c>
+      <c r="D34">
+        <v>4021.3</v>
+      </c>
+      <c r="E34">
+        <v>24.6</v>
+      </c>
+      <c r="F34">
+        <v>97.11</v>
+      </c>
+      <c r="G34">
+        <v>88.88</v>
+      </c>
+      <c r="H34">
+        <v>0.7</v>
+      </c>
+      <c r="I34">
+        <v>0.5</v>
+      </c>
+      <c r="J34">
+        <v>8.23</v>
+      </c>
+      <c r="K34">
+        <v>0.2</v>
+      </c>
+      <c r="L34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35">
+        <v>749.7</v>
+      </c>
+      <c r="D35">
+        <v>755.45</v>
+      </c>
+      <c r="E35">
+        <v>5.75</v>
+      </c>
+      <c r="F35">
+        <v>95.29000000000001</v>
+      </c>
+      <c r="G35">
+        <v>94.01000000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.79</v>
+      </c>
+      <c r="I35">
+        <v>0.36</v>
+      </c>
+      <c r="J35">
+        <v>1.28</v>
+      </c>
+      <c r="K35">
+        <v>0.44</v>
+      </c>
+      <c r="L35">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C36">
+        <v>253.97</v>
+      </c>
+      <c r="D36">
+        <v>255.7</v>
+      </c>
+      <c r="E36">
+        <v>1.73</v>
+      </c>
+      <c r="F36">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="G36">
+        <v>91.56999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.78</v>
+      </c>
+      <c r="I36">
+        <v>0.39</v>
+      </c>
+      <c r="J36">
+        <v>1.72</v>
+      </c>
+      <c r="K36">
+        <v>0.39</v>
+      </c>
+      <c r="L36">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37">
+        <v>455.25</v>
+      </c>
+      <c r="D37">
+        <v>458.5</v>
+      </c>
+      <c r="E37">
+        <v>3.25</v>
+      </c>
+      <c r="F37">
+        <v>97.48999999999999</v>
+      </c>
+      <c r="G37">
+        <v>85.48</v>
+      </c>
+      <c r="H37">
+        <v>0.66</v>
+      </c>
+      <c r="I37">
+        <v>0.39</v>
+      </c>
+      <c r="J37">
+        <v>12.01</v>
+      </c>
+      <c r="K37">
+        <v>0.27</v>
+      </c>
+      <c r="L37">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38">
+        <v>164.12</v>
+      </c>
+      <c r="D38">
+        <v>164.95</v>
+      </c>
+      <c r="E38">
+        <v>0.83</v>
+      </c>
+      <c r="F38">
+        <v>87.92</v>
+      </c>
+      <c r="G38">
+        <v>83.56999999999999</v>
+      </c>
+      <c r="H38">
+        <v>0.62</v>
+      </c>
+      <c r="I38">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J38">
+        <v>4.34</v>
+      </c>
+      <c r="K38">
+        <v>0.06</v>
+      </c>
+      <c r="L38">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39">
+        <v>117.59</v>
+      </c>
+      <c r="D39">
+        <v>118.4</v>
+      </c>
+      <c r="E39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F39">
+        <v>97.47</v>
+      </c>
+      <c r="G39">
+        <v>92.75</v>
+      </c>
+      <c r="H39">
+        <v>0.72</v>
+      </c>
+      <c r="I39">
+        <v>0.59</v>
+      </c>
+      <c r="J39">
+        <v>4.72</v>
+      </c>
+      <c r="K39">
+        <v>0.13</v>
+      </c>
+      <c r="L39">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40">
+        <v>287.25</v>
+      </c>
+      <c r="D40">
+        <v>288.55</v>
+      </c>
+      <c r="E40">
+        <v>1.3</v>
+      </c>
+      <c r="F40">
+        <v>93.03</v>
+      </c>
+      <c r="G40">
+        <v>90.34</v>
+      </c>
+      <c r="H40">
+        <v>0.59</v>
+      </c>
+      <c r="I40">
+        <v>0.55</v>
+      </c>
+      <c r="J40">
+        <v>2.68</v>
+      </c>
+      <c r="K40">
+        <v>0.04</v>
+      </c>
+      <c r="L40">
+        <v>3.72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41">
+        <v>147.21</v>
+      </c>
+      <c r="D41">
+        <v>148.23</v>
+      </c>
+      <c r="E41">
+        <v>1.02</v>
+      </c>
+      <c r="F41">
+        <v>95.48</v>
+      </c>
+      <c r="G41">
+        <v>95.47</v>
+      </c>
+      <c r="H41">
+        <v>0.68</v>
+      </c>
+      <c r="I41">
+        <v>0.65</v>
+      </c>
+      <c r="J41">
+        <v>0.02</v>
+      </c>
+      <c r="K41">
+        <v>0.03</v>
+      </c>
+      <c r="L41">
+        <v>4.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42">
+        <v>5701</v>
+      </c>
+      <c r="D42">
+        <v>5729.5</v>
+      </c>
+      <c r="E42">
+        <v>28.5</v>
+      </c>
+      <c r="F42">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="G42">
+        <v>93.84999999999999</v>
+      </c>
+      <c r="H42">
+        <v>0.59</v>
+      </c>
+      <c r="I42">
+        <v>0.22</v>
+      </c>
+      <c r="J42">
+        <v>3.22</v>
+      </c>
+      <c r="K42">
+        <v>0.37</v>
+      </c>
+      <c r="L42">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>212</v>
+      </c>
+      <c r="C43">
+        <v>1881.5</v>
+      </c>
+      <c r="D43">
+        <v>1891.7</v>
+      </c>
+      <c r="E43">
+        <v>10.2</v>
+      </c>
+      <c r="F43">
+        <v>97.52</v>
+      </c>
+      <c r="G43">
+        <v>94.23999999999999</v>
+      </c>
+      <c r="H43">
+        <v>0.74</v>
+      </c>
+      <c r="I43">
+        <v>0.6</v>
+      </c>
+      <c r="J43">
+        <v>3.28</v>
+      </c>
+      <c r="K43">
+        <v>0.14</v>
+      </c>
+      <c r="L43">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44">
+        <v>977.55</v>
+      </c>
+      <c r="D44">
+        <v>982.6</v>
+      </c>
+      <c r="E44">
+        <v>5.05</v>
+      </c>
+      <c r="F44">
+        <v>90.29000000000001</v>
+      </c>
+      <c r="G44">
+        <v>89.87</v>
+      </c>
+      <c r="H44">
+        <v>0.77</v>
+      </c>
+      <c r="I44">
+        <v>0.55</v>
+      </c>
+      <c r="J44">
+        <v>0.42</v>
+      </c>
+      <c r="K44">
+        <v>0.22</v>
+      </c>
+      <c r="L44">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45">
+        <v>2042.3</v>
+      </c>
+      <c r="D45">
+        <v>2055.1</v>
+      </c>
+      <c r="E45">
+        <v>12.8</v>
+      </c>
+      <c r="F45">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="G45">
+        <v>94.22</v>
+      </c>
+      <c r="H45">
+        <v>0.67</v>
+      </c>
+      <c r="I45">
+        <v>0.55</v>
+      </c>
+      <c r="J45">
+        <v>1.18</v>
+      </c>
+      <c r="K45">
+        <v>0.12</v>
+      </c>
+      <c r="L45">
+        <v>6.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" t="s">
+        <v>217</v>
+      </c>
+      <c r="C46">
+        <v>1776.8</v>
+      </c>
+      <c r="D46">
+        <v>1783.8</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>93.45999999999999</v>
+      </c>
+      <c r="G46">
+        <v>91.98</v>
+      </c>
+      <c r="H46">
+        <v>0.59</v>
+      </c>
+      <c r="I46">
+        <v>0.43</v>
+      </c>
+      <c r="J46">
+        <v>1.48</v>
+      </c>
+      <c r="K46">
+        <v>0.16</v>
+      </c>
+      <c r="L46">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47">
+        <v>1266.3</v>
+      </c>
+      <c r="D47">
+        <v>1273.1</v>
+      </c>
+      <c r="E47">
+        <v>6.8</v>
+      </c>
+      <c r="F47">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="G47">
+        <v>92.89</v>
+      </c>
+      <c r="H47">
+        <v>0.75</v>
+      </c>
+      <c r="I47">
+        <v>0.61</v>
+      </c>
+      <c r="J47">
+        <v>3.18</v>
+      </c>
+      <c r="K47">
+        <v>0.14</v>
+      </c>
+      <c r="L47">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48" t="s">
+        <v>231</v>
+      </c>
+      <c r="C48">
+        <v>230.76</v>
+      </c>
+      <c r="D48">
+        <v>232.28</v>
+      </c>
+      <c r="E48">
+        <v>1.52</v>
+      </c>
+      <c r="F48">
+        <v>96.81</v>
+      </c>
+      <c r="G48">
+        <v>92.18000000000001</v>
+      </c>
+      <c r="H48">
+        <v>0.76</v>
+      </c>
+      <c r="I48">
+        <v>0.45</v>
+      </c>
+      <c r="J48">
+        <v>4.64</v>
+      </c>
+      <c r="K48">
+        <v>0.31</v>
+      </c>
+      <c r="L48">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49">
+        <v>1731.7</v>
+      </c>
+      <c r="D49">
+        <v>1739.2</v>
+      </c>
+      <c r="E49">
+        <v>7.5</v>
+      </c>
+      <c r="F49">
+        <v>95.27</v>
+      </c>
+      <c r="G49">
+        <v>90.97</v>
+      </c>
+      <c r="H49">
+        <v>0.7</v>
+      </c>
+      <c r="I49">
+        <v>0.49</v>
+      </c>
+      <c r="J49">
+        <v>4.29</v>
+      </c>
+      <c r="K49">
+        <v>0.2</v>
+      </c>
+      <c r="L49">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>35</v>
+      </c>
+      <c r="B50" t="s">
+        <v>240</v>
+      </c>
+      <c r="C50">
+        <v>10.05</v>
+      </c>
+      <c r="D50">
+        <v>10.13</v>
+      </c>
+      <c r="E50">
+        <v>0.08</v>
+      </c>
+      <c r="F50">
+        <v>96.25</v>
+      </c>
+      <c r="G50">
+        <v>96.09</v>
+      </c>
+      <c r="H50">
+        <v>0.7</v>
+      </c>
+      <c r="I50">
+        <v>0.63</v>
+      </c>
+      <c r="J50">
+        <v>0.15</v>
+      </c>
+      <c r="K50">
+        <v>0.06</v>
+      </c>
+      <c r="L50">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51">
+        <v>10.05</v>
+      </c>
+      <c r="D51">
+        <v>10.13</v>
+      </c>
+      <c r="E51">
+        <v>0.08</v>
+      </c>
+      <c r="F51">
+        <v>96.25</v>
+      </c>
+      <c r="G51">
+        <v>96.09</v>
+      </c>
+      <c r="H51">
+        <v>0.7</v>
+      </c>
+      <c r="I51">
+        <v>0.63</v>
+      </c>
+      <c r="J51">
+        <v>0.15</v>
+      </c>
+      <c r="K51">
+        <v>0.06</v>
+      </c>
+      <c r="L51">
+        <v>6.46</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:L51">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($L6&lt;0, $J6&gt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($L6&lt;0, $J6&lt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($L6&gt;0, $J6&lt;0, $K6&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>7138</v>
+      </c>
+      <c r="D6">
+        <v>6941</v>
+      </c>
+      <c r="E6">
+        <v>-197</v>
+      </c>
+      <c r="F6">
+        <v>90.19</v>
+      </c>
+      <c r="G6">
+        <v>89.58</v>
+      </c>
+      <c r="H6">
+        <v>-3.05</v>
+      </c>
+      <c r="I6">
+        <v>-0.72</v>
+      </c>
+      <c r="J6">
+        <v>0.61</v>
+      </c>
+      <c r="K6">
+        <v>-2.33</v>
+      </c>
+      <c r="L6">
+        <v>-16.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>1120</v>
+      </c>
+      <c r="D7">
+        <v>1124.7</v>
+      </c>
+      <c r="E7">
+        <v>4.7</v>
+      </c>
+      <c r="F7">
+        <v>80.86</v>
+      </c>
+      <c r="G7">
+        <v>73.15000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.28</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>7.71</v>
+      </c>
+      <c r="K7">
+        <v>-0.1</v>
+      </c>
+      <c r="L7">
+        <v>-4.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8">
+        <v>322.9</v>
+      </c>
+      <c r="D8">
+        <v>304.05</v>
+      </c>
+      <c r="E8">
+        <v>-18.85</v>
+      </c>
+      <c r="F8">
+        <v>98.01000000000001</v>
+      </c>
+      <c r="G8">
+        <v>93.59</v>
+      </c>
+      <c r="H8">
+        <v>-5.92</v>
+      </c>
+      <c r="I8">
+        <v>-1.39</v>
+      </c>
+      <c r="J8">
+        <v>4.42</v>
+      </c>
+      <c r="K8">
+        <v>-4.53</v>
+      </c>
+      <c r="L8">
+        <v>-1.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C9">
+        <v>184.87</v>
+      </c>
+      <c r="D9">
+        <v>185.4</v>
+      </c>
+      <c r="E9">
+        <v>0.53</v>
+      </c>
+      <c r="F9">
+        <v>94.88</v>
+      </c>
+      <c r="G9">
+        <v>88.66</v>
+      </c>
+      <c r="H9">
+        <v>0.36</v>
+      </c>
+      <c r="I9">
+        <v>0.54</v>
+      </c>
+      <c r="J9">
+        <v>6.22</v>
+      </c>
+      <c r="K9">
+        <v>-0.18</v>
+      </c>
+      <c r="L9">
+        <v>-8.529999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>2069.9</v>
+      </c>
+      <c r="D10">
+        <v>2081.1</v>
+      </c>
+      <c r="E10">
+        <v>11.2</v>
+      </c>
+      <c r="F10">
+        <v>97.02</v>
+      </c>
+      <c r="G10">
+        <v>94.93000000000001</v>
+      </c>
+      <c r="H10">
+        <v>0.58</v>
+      </c>
+      <c r="I10">
+        <v>0.63</v>
+      </c>
+      <c r="J10">
+        <v>2.08</v>
+      </c>
+      <c r="K10">
+        <v>-0.05</v>
+      </c>
+      <c r="L10">
+        <v>-4.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11">
+        <v>308.25</v>
+      </c>
+      <c r="D11">
+        <v>310.25</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>89.66</v>
+      </c>
+      <c r="G11">
+        <v>85.58</v>
+      </c>
+      <c r="H11">
+        <v>0.76</v>
+      </c>
+      <c r="I11">
+        <v>0.93</v>
+      </c>
+      <c r="J11">
+        <v>4.08</v>
+      </c>
+      <c r="K11">
+        <v>-0.17</v>
+      </c>
+      <c r="L11">
+        <v>-5.18</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:L11">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($L6&lt;0, $J6&gt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($L6&lt;0, $J6&lt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($L6&gt;0, $J6&lt;0, $K6&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>21742</v>
+      </c>
+      <c r="D6">
+        <v>21888</v>
+      </c>
+      <c r="E6">
+        <v>146</v>
+      </c>
+      <c r="F6">
+        <v>88.81999999999999</v>
+      </c>
+      <c r="G6">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.57</v>
+      </c>
+      <c r="I6">
+        <v>0.54</v>
+      </c>
+      <c r="J6">
+        <v>-7.92</v>
+      </c>
+      <c r="K6">
+        <v>0.03</v>
+      </c>
+      <c r="L6">
+        <v>28.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>145.83</v>
+      </c>
+      <c r="D7">
+        <v>146.49</v>
+      </c>
+      <c r="E7">
+        <v>0.66</v>
+      </c>
+      <c r="F7">
+        <v>91.67</v>
+      </c>
+      <c r="G7">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.33</v>
+      </c>
+      <c r="I7">
+        <v>-0.19</v>
+      </c>
+      <c r="J7">
+        <v>-1.84</v>
+      </c>
+      <c r="K7">
+        <v>0.52</v>
+      </c>
+      <c r="L7">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>1409.7</v>
+      </c>
+      <c r="D8">
+        <v>1418.3</v>
+      </c>
+      <c r="E8">
+        <v>8.6</v>
+      </c>
+      <c r="F8">
+        <v>87.91</v>
+      </c>
+      <c r="G8">
+        <v>92.15000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.54</v>
+      </c>
+      <c r="I8">
+        <v>0.18</v>
+      </c>
+      <c r="J8">
+        <v>-4.24</v>
+      </c>
+      <c r="K8">
+        <v>0.36</v>
+      </c>
+      <c r="L8">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>7218.5</v>
+      </c>
+      <c r="D9">
+        <v>7238</v>
+      </c>
+      <c r="E9">
+        <v>19.5</v>
+      </c>
+      <c r="F9">
+        <v>85.68000000000001</v>
+      </c>
+      <c r="G9">
+        <v>90.48</v>
+      </c>
+      <c r="H9">
+        <v>0.58</v>
+      </c>
+      <c r="I9">
+        <v>0.3</v>
+      </c>
+      <c r="J9">
+        <v>-4.8</v>
+      </c>
+      <c r="K9">
+        <v>0.28</v>
+      </c>
+      <c r="L9">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <v>501.3</v>
+      </c>
+      <c r="D10">
+        <v>504.05</v>
+      </c>
+      <c r="E10">
+        <v>2.75</v>
+      </c>
+      <c r="F10">
+        <v>85.89</v>
+      </c>
+      <c r="G10">
+        <v>91.44</v>
+      </c>
+      <c r="H10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+      <c r="J10">
+        <v>-5.55</v>
+      </c>
+      <c r="K10">
+        <v>0.48</v>
+      </c>
+      <c r="L10">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>944.05</v>
+      </c>
+      <c r="D11">
+        <v>947.3</v>
+      </c>
+      <c r="E11">
+        <v>3.25</v>
+      </c>
+      <c r="F11">
+        <v>93.31999999999999</v>
+      </c>
+      <c r="G11">
+        <v>93.92</v>
+      </c>
+      <c r="H11">
+        <v>0.61</v>
+      </c>
+      <c r="I11">
+        <v>0.27</v>
+      </c>
+      <c r="J11">
+        <v>-0.6</v>
+      </c>
+      <c r="K11">
+        <v>0.34</v>
+      </c>
+      <c r="L11">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>2875.8</v>
+      </c>
+      <c r="D12">
+        <v>2890.4</v>
+      </c>
+      <c r="E12">
+        <v>14.6</v>
+      </c>
+      <c r="F12">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="G12">
+        <v>91.12</v>
+      </c>
+      <c r="H12">
+        <v>0.75</v>
+      </c>
+      <c r="I12">
+        <v>0.37</v>
+      </c>
+      <c r="J12">
+        <v>-10.44</v>
+      </c>
+      <c r="K12">
+        <v>0.38</v>
+      </c>
+      <c r="L12">
+        <v>14.61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13">
+        <v>5867</v>
+      </c>
+      <c r="D13">
+        <v>5892</v>
+      </c>
+      <c r="E13">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>89.26000000000001</v>
+      </c>
+      <c r="G13">
+        <v>94.92</v>
+      </c>
+      <c r="H13">
+        <v>0.43</v>
+      </c>
+      <c r="I13">
+        <v>0.29</v>
+      </c>
+      <c r="J13">
+        <v>-5.67</v>
+      </c>
+      <c r="K13">
+        <v>0.14</v>
+      </c>
+      <c r="L13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14">
+        <v>514.4</v>
+      </c>
+      <c r="D14">
+        <v>517.7</v>
+      </c>
+      <c r="E14">
+        <v>3.3</v>
+      </c>
+      <c r="F14">
+        <v>80.56999999999999</v>
+      </c>
+      <c r="G14">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.54</v>
+      </c>
+      <c r="I14">
+        <v>0.31</v>
+      </c>
+      <c r="J14">
+        <v>-13.08</v>
+      </c>
+      <c r="K14">
+        <v>0.23</v>
+      </c>
+      <c r="L14">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>1430.4</v>
+      </c>
+      <c r="D15">
+        <v>1437.6</v>
+      </c>
+      <c r="E15">
+        <v>7.2</v>
+      </c>
+      <c r="F15">
+        <v>93.45</v>
+      </c>
+      <c r="G15">
+        <v>94.70999999999999</v>
+      </c>
+      <c r="H15">
+        <v>0.64</v>
+      </c>
+      <c r="I15">
+        <v>0.55</v>
+      </c>
+      <c r="J15">
+        <v>-1.26</v>
+      </c>
+      <c r="K15">
+        <v>0.09</v>
+      </c>
+      <c r="L15">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16">
+        <v>2840.6</v>
+      </c>
+      <c r="D16">
+        <v>2857.3</v>
+      </c>
+      <c r="E16">
+        <v>16.7</v>
+      </c>
+      <c r="F16">
+        <v>79.81</v>
+      </c>
+      <c r="G16">
+        <v>84.34</v>
+      </c>
+      <c r="H16">
+        <v>0.64</v>
+      </c>
+      <c r="I16">
+        <v>0.61</v>
+      </c>
+      <c r="J16">
+        <v>-4.53</v>
+      </c>
+      <c r="K16">
+        <v>0.03</v>
+      </c>
+      <c r="L16">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>557.4</v>
+      </c>
+      <c r="D17">
+        <v>560</v>
+      </c>
+      <c r="E17">
+        <v>2.6</v>
+      </c>
+      <c r="F17">
+        <v>94.03</v>
+      </c>
+      <c r="G17">
+        <v>94.38</v>
+      </c>
+      <c r="H17">
+        <v>0.73</v>
+      </c>
+      <c r="I17">
+        <v>0.52</v>
+      </c>
+      <c r="J17">
+        <v>-0.36</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18">
+        <v>296.9</v>
+      </c>
+      <c r="D18">
+        <v>299</v>
+      </c>
+      <c r="E18">
+        <v>2.1</v>
+      </c>
+      <c r="F18">
+        <v>78.48999999999999</v>
+      </c>
+      <c r="G18">
+        <v>89.66</v>
+      </c>
+      <c r="H18">
+        <v>0.57</v>
+      </c>
+      <c r="I18">
+        <v>0.36</v>
+      </c>
+      <c r="J18">
+        <v>-11.16</v>
+      </c>
+      <c r="K18">
+        <v>0.21</v>
+      </c>
+      <c r="L18">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19">
+        <v>245.64</v>
+      </c>
+      <c r="D19">
+        <v>246.02</v>
+      </c>
+      <c r="E19">
+        <v>0.38</v>
+      </c>
+      <c r="F19">
+        <v>90.03</v>
+      </c>
+      <c r="G19">
+        <v>92.64</v>
+      </c>
+      <c r="H19">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="I19">
+        <v>-0.11</v>
+      </c>
+      <c r="J19">
+        <v>-2.61</v>
+      </c>
+      <c r="K19">
+        <v>0.04</v>
+      </c>
+      <c r="L19">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20">
+        <v>282.9</v>
+      </c>
+      <c r="D20">
+        <v>284.7</v>
+      </c>
+      <c r="E20">
+        <v>1.8</v>
+      </c>
+      <c r="F20">
+        <v>88.13</v>
+      </c>
+      <c r="G20">
+        <v>92.64</v>
+      </c>
+      <c r="H20">
+        <v>0.51</v>
+      </c>
+      <c r="I20">
+        <v>0.46</v>
+      </c>
+      <c r="J20">
+        <v>-4.51</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21">
+        <v>104.21</v>
+      </c>
+      <c r="D21">
+        <v>104.74</v>
+      </c>
+      <c r="E21">
+        <v>0.53</v>
+      </c>
+      <c r="F21">
+        <v>86.06999999999999</v>
+      </c>
+      <c r="G21">
+        <v>96.36</v>
+      </c>
+      <c r="H21">
+        <v>0.72</v>
+      </c>
+      <c r="I21">
+        <v>0.63</v>
+      </c>
+      <c r="J21">
+        <v>-10.29</v>
+      </c>
+      <c r="K21">
+        <v>0.09</v>
+      </c>
+      <c r="L21">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22">
+        <v>132.25</v>
+      </c>
+      <c r="D22">
+        <v>132.8</v>
+      </c>
+      <c r="E22">
+        <v>0.55</v>
+      </c>
+      <c r="F22">
+        <v>90.42</v>
+      </c>
+      <c r="G22">
+        <v>92.64</v>
+      </c>
+      <c r="H22">
+        <v>0.66</v>
+      </c>
+      <c r="I22">
+        <v>0.26</v>
+      </c>
+      <c r="J22">
+        <v>-2.23</v>
+      </c>
+      <c r="K22">
+        <v>0.4</v>
+      </c>
+      <c r="L22">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C23">
+        <v>504.65</v>
+      </c>
+      <c r="D23">
+        <v>507.65</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>94.29000000000001</v>
+      </c>
+      <c r="G23">
+        <v>95.17</v>
+      </c>
+      <c r="H23">
+        <v>0.67</v>
+      </c>
+      <c r="I23">
+        <v>0.55</v>
+      </c>
+      <c r="J23">
+        <v>-0.88</v>
+      </c>
+      <c r="K23">
+        <v>0.12</v>
+      </c>
+      <c r="L23">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24">
+        <v>180.22</v>
+      </c>
+      <c r="D24">
+        <v>181.13</v>
+      </c>
+      <c r="E24">
+        <v>0.91</v>
+      </c>
+      <c r="F24">
+        <v>89.5</v>
+      </c>
+      <c r="G24">
+        <v>92.94</v>
+      </c>
+      <c r="H24">
+        <v>0.59</v>
+      </c>
+      <c r="I24">
+        <v>0.48</v>
+      </c>
+      <c r="J24">
+        <v>-3.43</v>
+      </c>
+      <c r="K24">
+        <v>0.1</v>
+      </c>
+      <c r="L24">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25">
+        <v>421.05</v>
+      </c>
+      <c r="D25">
+        <v>422.7</v>
+      </c>
+      <c r="E25">
+        <v>1.65</v>
+      </c>
+      <c r="F25">
+        <v>85.04000000000001</v>
+      </c>
+      <c r="G25">
+        <v>85.19</v>
+      </c>
+      <c r="H25">
+        <v>0.46</v>
+      </c>
+      <c r="I25">
+        <v>0.22</v>
+      </c>
+      <c r="J25">
+        <v>-0.15</v>
+      </c>
+      <c r="K25">
+        <v>0.25</v>
+      </c>
+      <c r="L25">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26">
+        <v>1539.7</v>
+      </c>
+      <c r="D26">
+        <v>1547.6</v>
+      </c>
+      <c r="E26">
+        <v>7.9</v>
+      </c>
+      <c r="F26">
+        <v>92.42</v>
+      </c>
+      <c r="G26">
+        <v>94.53</v>
+      </c>
+      <c r="H26">
+        <v>0.75</v>
+      </c>
+      <c r="I26">
+        <v>0.55</v>
+      </c>
+      <c r="J26">
+        <v>-2.11</v>
+      </c>
+      <c r="K26">
+        <v>0.2</v>
+      </c>
+      <c r="L26">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27">
+        <v>873.1</v>
+      </c>
+      <c r="D27">
+        <v>876.4</v>
+      </c>
+      <c r="E27">
+        <v>3.3</v>
+      </c>
+      <c r="F27">
+        <v>88.78</v>
+      </c>
+      <c r="G27">
+        <v>90.62</v>
+      </c>
+      <c r="H27">
+        <v>0.48</v>
+      </c>
+      <c r="I27">
+        <v>-0.09</v>
+      </c>
+      <c r="J27">
+        <v>-1.84</v>
+      </c>
+      <c r="K27">
+        <v>0.57</v>
+      </c>
+      <c r="L27">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C28">
+        <v>983.6</v>
+      </c>
+      <c r="D28">
+        <v>988.45</v>
+      </c>
+      <c r="E28">
+        <v>4.85</v>
+      </c>
+      <c r="F28">
+        <v>89.65000000000001</v>
+      </c>
+      <c r="G28">
+        <v>91.13</v>
+      </c>
+      <c r="H28">
+        <v>0.71</v>
+      </c>
+      <c r="I28">
+        <v>0.63</v>
+      </c>
+      <c r="J28">
+        <v>-1.48</v>
+      </c>
+      <c r="K28">
+        <v>0.08</v>
+      </c>
+      <c r="L28">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29">
+        <v>1208</v>
+      </c>
+      <c r="D29">
+        <v>1215.7</v>
+      </c>
+      <c r="E29">
+        <v>7.7</v>
+      </c>
+      <c r="F29">
+        <v>95.98</v>
+      </c>
+      <c r="G29">
+        <v>96.05</v>
+      </c>
+      <c r="H29">
+        <v>0.74</v>
+      </c>
+      <c r="I29">
+        <v>0.61</v>
+      </c>
+      <c r="J29">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="K29">
+        <v>0.13</v>
+      </c>
+      <c r="L29">
+        <v>9.880000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30">
+        <v>3745.2</v>
+      </c>
+      <c r="D30">
+        <v>3769.6</v>
+      </c>
+      <c r="E30">
+        <v>24.4</v>
+      </c>
+      <c r="F30">
+        <v>94.52</v>
+      </c>
+      <c r="G30">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.71</v>
+      </c>
+      <c r="I30">
+        <v>0.43</v>
+      </c>
+      <c r="J30">
+        <v>-0.13</v>
+      </c>
+      <c r="K30">
+        <v>0.27</v>
+      </c>
+      <c r="L30">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31">
+        <v>2161.6</v>
+      </c>
+      <c r="D31">
+        <v>2170.3</v>
+      </c>
+      <c r="E31">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="F31">
+        <v>87.12</v>
+      </c>
+      <c r="G31">
+        <v>91.13</v>
+      </c>
+      <c r="H31">
+        <v>0.64</v>
+      </c>
+      <c r="I31">
+        <v>0.5</v>
+      </c>
+      <c r="J31">
+        <v>-4.02</v>
+      </c>
+      <c r="K31">
+        <v>0.14</v>
+      </c>
+      <c r="L31">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C32">
+        <v>403.6</v>
+      </c>
+      <c r="D32">
+        <v>406.5</v>
+      </c>
+      <c r="E32">
+        <v>2.9</v>
+      </c>
+      <c r="F32">
+        <v>91.92</v>
+      </c>
+      <c r="G32">
+        <v>96.06999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.61</v>
+      </c>
+      <c r="I32">
+        <v>0.6</v>
+      </c>
+      <c r="J32">
+        <v>-4.15</v>
+      </c>
+      <c r="K32">
+        <v>0.01</v>
+      </c>
+      <c r="L32">
+        <v>4.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:L32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>AND($L6&lt;0, $J6&gt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>AND($L6&lt;0, $J6&lt;0, $K6&lt;0)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND($L6&gt;0, $J6&lt;0, $K6&gt;0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>151.74</v>
+      </c>
+      <c r="D6">
+        <v>152.66</v>
+      </c>
+      <c r="E6">
+        <v>0.92</v>
+      </c>
+      <c r="F6">
+        <v>91.65000000000001</v>
+      </c>
+      <c r="G6">
+        <v>94.76000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9</v>
+      </c>
+      <c r="J6">
+        <v>-3.11</v>
+      </c>
+      <c r="K6">
+        <v>-0.09</v>
+      </c>
+      <c r="L6">
+        <v>-18.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7">
+        <v>5775</v>
+      </c>
+      <c r="D7">
+        <v>5777</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>92.91</v>
+      </c>
+      <c r="G7">
+        <v>94.65000000000001</v>
+      </c>
+      <c r="H7">
+        <v>0.09</v>
+      </c>
+      <c r="I7">
+        <v>0.38</v>
+      </c>
+      <c r="J7">
+        <v>-1.74</v>
+      </c>
+      <c r="K7">
+        <v>-0.29</v>
+      </c>
+      <c r="L7">
+        <v>-0.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>3448.5</v>
+      </c>
+      <c r="D8">
+        <v>3417</v>
+      </c>
+      <c r="E8">
+        <v>-31.5</v>
+      </c>
+      <c r="F8">
+        <v>80.47</v>
+      </c>
+      <c r="G8">
+        <v>92.89</v>
+      </c>
+      <c r="H8">
+        <v>-1.07</v>
+      </c>
+      <c r="I8">
+        <v>0.42</v>
+      </c>
+      <c r="J8">
+        <v>-12.42</v>
+      </c>
+      <c r="K8">
+        <v>-1.49</v>
+      </c>
+      <c r="L8">
+        <v>-3.87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9">
+        <v>2414.1</v>
+      </c>
+      <c r="D9">
+        <v>2417.5</v>
+      </c>
+      <c r="E9">
+        <v>3.4</v>
+      </c>
+      <c r="F9">
+        <v>87.54000000000001</v>
+      </c>
+      <c r="G9">
+        <v>91.94</v>
+      </c>
+      <c r="H9">
+        <v>0.21</v>
+      </c>
+      <c r="I9">
+        <v>0.27</v>
+      </c>
+      <c r="J9">
+        <v>-4.4</v>
+      </c>
+      <c r="K9">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L9">
+        <v>-3.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>361.4</v>
+      </c>
+      <c r="D10">
+        <v>359.8</v>
+      </c>
+      <c r="E10">
+        <v>-1.6</v>
+      </c>
+      <c r="F10">
+        <v>92.67</v>
+      </c>
+      <c r="G10">
+        <v>93.14</v>
+      </c>
+      <c r="H10">
+        <v>-0.33</v>
+      </c>
+      <c r="I10">
+        <v>0.28</v>
+      </c>
+      <c r="J10">
+        <v>-0.47</v>
+      </c>
+      <c r="K10">
+        <v>-0.61</v>
+      </c>
+      <c r="L10">
+        <v>-8.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11">
+        <v>5070.5</v>
+      </c>
+      <c r="D11">
+        <v>5067</v>
+      </c>
+      <c r="E11">
+        <v>-3.5</v>
+      </c>
+      <c r="F11">
+        <v>94.98</v>
+      </c>
+      <c r="G11">
+        <v>95.09999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J11">
+        <v>-0.12</v>
+      </c>
+      <c r="K11">
+        <v>-0.31</v>
+      </c>
+      <c r="L11">
+        <v>-2.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A6:L11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>

--- a/generated_data/Nov2025_Rollover_Data.xlsx
+++ b/generated_data/Nov2025_Rollover_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="248">
   <si>
     <t>Sectoral Index</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>M_o_M%</t>
+  </si>
+  <si>
+    <t>Next_M_o_M%</t>
   </si>
   <si>
     <t>NIFTY Airlines/Logistics</t>
@@ -1199,7 +1202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L213"/>
+  <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -1222,29 +1225,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1281,13 +1285,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>21742</v>
@@ -1319,13 +1326,16 @@
       <c r="L6">
         <v>28.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>151.74</v>
@@ -1357,13 +1367,16 @@
       <c r="L7">
         <v>-18.97</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>352.45</v>
@@ -1395,13 +1408,16 @@
       <c r="L8">
         <v>-14.35</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>512.5</v>
@@ -1433,13 +1449,16 @@
       <c r="L9">
         <v>-5.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>410.65</v>
@@ -1471,13 +1490,16 @@
       <c r="L10">
         <v>-13.69</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>677.5</v>
@@ -1509,13 +1531,16 @@
       <c r="L11">
         <v>-6.12</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>669.5</v>
@@ -1547,13 +1572,16 @@
       <c r="L12">
         <v>-3.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>837.1</v>
@@ -1585,13 +1613,16 @@
       <c r="L13">
         <v>-6.24</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>145.83</v>
@@ -1623,13 +1654,16 @@
       <c r="L14">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>1409.7</v>
@@ -1661,13 +1695,16 @@
       <c r="L15">
         <v>7.77</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>35770</v>
@@ -1699,13 +1736,16 @@
       <c r="L16">
         <v>-7.19</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <v>7218.5</v>
@@ -1737,13 +1777,16 @@
       <c r="L17">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <v>361.85</v>
@@ -1775,13 +1818,16 @@
       <c r="L18">
         <v>-4.95</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19">
         <v>6081.5</v>
@@ -1813,13 +1859,16 @@
       <c r="L19">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20">
         <v>15889</v>
@@ -1851,13 +1900,16 @@
       <c r="L20">
         <v>-2.59</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21">
         <v>110.21</v>
@@ -1889,13 +1941,16 @@
       <c r="L21">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22">
         <v>501.3</v>
@@ -1927,13 +1982,16 @@
       <c r="L22">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23">
         <v>2879.7</v>
@@ -1965,13 +2023,16 @@
       <c r="L23">
         <v>-7.86</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24">
         <v>3447.8</v>
@@ -2003,13 +2064,16 @@
       <c r="L24">
         <v>-3.21</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25">
         <v>1285.3</v>
@@ -2041,13 +2105,16 @@
       <c r="L25">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26">
         <v>5775</v>
@@ -2079,13 +2146,16 @@
       <c r="L26">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>944.05</v>
@@ -2117,13 +2187,16 @@
       <c r="L27">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>839.9</v>
@@ -2155,13 +2228,16 @@
       <c r="L28">
         <v>5.02</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29">
         <v>7138</v>
@@ -2193,13 +2269,16 @@
       <c r="L29">
         <v>-16.28</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <v>2875.8</v>
@@ -2231,13 +2310,16 @@
       <c r="L30">
         <v>14.61</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31">
         <v>1465.5</v>
@@ -2269,13 +2351,16 @@
       <c r="L31">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32">
         <v>1746.7</v>
@@ -2307,13 +2392,16 @@
       <c r="L32">
         <v>-10.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33">
         <v>265.05</v>
@@ -2345,13 +2433,16 @@
       <c r="L33">
         <v>-8.699999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C34">
         <v>14401</v>
@@ -2383,13 +2474,16 @@
       <c r="L34">
         <v>-6.32</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>1419.4</v>
@@ -2421,13 +2515,16 @@
       <c r="L35">
         <v>-4.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36">
         <v>482.8</v>
@@ -2459,13 +2556,16 @@
       <c r="L36">
         <v>-4.38</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37">
         <v>570.35</v>
@@ -2497,13 +2597,16 @@
       <c r="L37">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>1466.6</v>
@@ -2535,13 +2638,16 @@
       <c r="L38">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39">
         <v>7439</v>
@@ -2573,13 +2679,16 @@
       <c r="L39">
         <v>-0.95</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C40">
         <v>3427.3</v>
@@ -2611,13 +2720,16 @@
       <c r="L40">
         <v>-10.14</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41">
         <v>3855.1</v>
@@ -2649,13 +2761,16 @@
       <c r="L41">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C42">
         <v>1356.3</v>
@@ -2687,13 +2802,16 @@
       <c r="L42">
         <v>-5.05</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C43">
         <v>1462.4</v>
@@ -2725,13 +2843,16 @@
       <c r="L43">
         <v>-3.64</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C44">
         <v>410.25</v>
@@ -2763,13 +2884,16 @@
       <c r="L44">
         <v>-0.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C45">
         <v>4441.6</v>
@@ -2801,13 +2925,16 @@
       <c r="L45">
         <v>-5.99</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C46">
         <v>2643</v>
@@ -2839,13 +2966,16 @@
       <c r="L46">
         <v>-4.94</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C47">
         <v>1483.9</v>
@@ -2877,13 +3007,16 @@
       <c r="L47">
         <v>4.65</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C48">
         <v>3448.5</v>
@@ -2915,13 +3048,16 @@
       <c r="L48">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49">
         <v>971.5</v>
@@ -2953,13 +3089,16 @@
       <c r="L49">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C50">
         <v>1011.6</v>
@@ -2991,13 +3130,16 @@
       <c r="L50">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C51">
         <v>355.85</v>
@@ -3029,13 +3171,16 @@
       <c r="L51">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C52">
         <v>370.05</v>
@@ -3067,13 +3212,16 @@
       <c r="L52">
         <v>-5.45</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>476.6</v>
@@ -3105,13 +3253,16 @@
       <c r="L53">
         <v>-11.14</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>77.23</v>
@@ -3143,13 +3294,16 @@
       <c r="L54">
         <v>-8.74</v>
       </c>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>323.7</v>
@@ -3181,13 +3335,16 @@
       <c r="L55">
         <v>-4.56</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56">
         <v>273.45</v>
@@ -3219,13 +3376,16 @@
       <c r="L56">
         <v>-5.13</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C57">
         <v>54.19</v>
@@ -3257,13 +3417,16 @@
       <c r="L57">
         <v>-3.61</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C58">
         <v>380</v>
@@ -3295,13 +3458,16 @@
       <c r="L58">
         <v>-4.68</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C59">
         <v>1293</v>
@@ -3333,13 +3499,16 @@
       <c r="L59">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60">
         <v>5867</v>
@@ -3371,13 +3540,16 @@
       <c r="L60">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C61">
         <v>2167.7</v>
@@ -3409,13 +3581,16 @@
       <c r="L61">
         <v>-2.91</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C62">
         <v>514.4</v>
@@ -3447,13 +3622,16 @@
       <c r="L62">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C63">
         <v>1144.5</v>
@@ -3485,13 +3663,16 @@
       <c r="L63">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C64">
         <v>2414.1</v>
@@ -3523,13 +3704,16 @@
       <c r="L64">
         <v>-3.32</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C65">
         <v>400.8</v>
@@ -3561,13 +3745,16 @@
       <c r="L65">
         <v>-4.09</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C66">
         <v>593.05</v>
@@ -3599,13 +3786,16 @@
       <c r="L66">
         <v>-1.28</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67">
         <v>731.35</v>
@@ -3637,13 +3827,16 @@
       <c r="L67">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68">
         <v>1263.2</v>
@@ -3675,13 +3868,16 @@
       <c r="L68">
         <v>-0.61</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C69">
         <v>569.35</v>
@@ -3713,13 +3909,16 @@
       <c r="L69">
         <v>-4.09</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C70">
         <v>1177.7</v>
@@ -3751,13 +3950,16 @@
       <c r="L70">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71">
         <v>4243.9</v>
@@ -3789,13 +3991,16 @@
       <c r="L71">
         <v>-10.19</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>1430.4</v>
@@ -3827,13 +4032,16 @@
       <c r="L72">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73">
         <v>449.05</v>
@@ -3865,13 +4073,16 @@
       <c r="L73">
         <v>-1.12</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74">
         <v>1120</v>
@@ -3903,13 +4114,16 @@
       <c r="L74">
         <v>-4.42</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75">
         <v>345.45</v>
@@ -3941,13 +4155,16 @@
       <c r="L75">
         <v>10.51</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76">
         <v>2687.7</v>
@@ -3979,13 +4196,16 @@
       <c r="L76">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77">
         <v>2030.2</v>
@@ -4017,13 +4237,16 @@
       <c r="L77">
         <v>-5.14</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C78">
         <v>986.2</v>
@@ -4055,13 +4278,16 @@
       <c r="L78">
         <v>-8.07</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79">
         <v>2840.6</v>
@@ -4093,13 +4319,16 @@
       <c r="L79">
         <v>17.39</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80">
         <v>1574.1</v>
@@ -4131,13 +4360,16 @@
       <c r="L80">
         <v>-3.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C81">
         <v>1685.4</v>
@@ -4169,13 +4401,16 @@
       <c r="L81">
         <v>-2.19</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B82" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C82">
         <v>5336.5</v>
@@ -4207,13 +4442,16 @@
       <c r="L82">
         <v>-5.49</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C83">
         <v>766.55</v>
@@ -4245,13 +4483,16 @@
       <c r="L83">
         <v>2.62</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C84">
         <v>1999</v>
@@ -4283,13 +4524,16 @@
       <c r="L84">
         <v>-0.99</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C85">
         <v>612.25</v>
@@ -4321,13 +4565,16 @@
       <c r="L85">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86">
         <v>140.24</v>
@@ -4359,13 +4606,16 @@
       <c r="L86">
         <v>-4.93</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C87">
         <v>557.4</v>
@@ -4397,13 +4647,16 @@
       <c r="L87">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C88">
         <v>300.8</v>
@@ -4435,13 +4688,16 @@
       <c r="L88">
         <v>-2.32</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C89">
         <v>1050.4</v>
@@ -4473,13 +4729,16 @@
       <c r="L89">
         <v>-10.59</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C90">
         <v>548.1</v>
@@ -4511,13 +4770,16 @@
       <c r="L90">
         <v>-6.45</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C91">
         <v>897.65</v>
@@ -4549,13 +4811,16 @@
       <c r="L91">
         <v>-0.25</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C92">
         <v>296.9</v>
@@ -4587,13 +4852,16 @@
       <c r="L92">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C93">
         <v>279.05</v>
@@ -4625,13 +4893,16 @@
       <c r="L93">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94">
         <v>9867</v>
@@ -4663,13 +4934,16 @@
       <c r="L94">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C95">
         <v>1697.9</v>
@@ -4701,13 +4975,16 @@
       <c r="L95">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96">
         <v>3681.4</v>
@@ -4739,13 +5016,16 @@
       <c r="L96">
         <v>15.69</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C97">
         <v>6972.5</v>
@@ -4777,13 +5057,16 @@
       <c r="L97">
         <v>-6.32</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C98">
         <v>1241.4</v>
@@ -4815,13 +5098,16 @@
       <c r="L98">
         <v>-5.21</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99">
         <v>361.4</v>
@@ -4853,13 +5139,16 @@
       <c r="L99">
         <v>-8.41</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C100">
         <v>881.45</v>
@@ -4891,13 +5180,16 @@
       <c r="L100">
         <v>-5.58</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C101">
         <v>1765.9</v>
@@ -4929,13 +5221,16 @@
       <c r="L101">
         <v>-0.51</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C102">
         <v>351.75</v>
@@ -4967,13 +5262,16 @@
       <c r="L102">
         <v>-4.66</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C103">
         <v>873.4</v>
@@ -5005,13 +5303,16 @@
       <c r="L103">
         <v>-3.57</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104">
         <v>2031</v>
@@ -5043,13 +5344,16 @@
       <c r="L104">
         <v>4.86</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C105">
         <v>838.25</v>
@@ -5081,13 +5385,16 @@
       <c r="L105">
         <v>15.83</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C106">
         <v>7330.5</v>
@@ -5119,13 +5426,16 @@
       <c r="L106">
         <v>-6.98</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C107">
         <v>920.4</v>
@@ -5157,13 +5467,16 @@
       <c r="L107">
         <v>-12.92</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C108">
         <v>1158.1</v>
@@ -5195,13 +5508,16 @@
       <c r="L108">
         <v>-1.83</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C109">
         <v>642.05</v>
@@ -5233,13 +5549,16 @@
       <c r="L109">
         <v>-2.35</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C110">
         <v>3894.4</v>
@@ -5271,13 +5590,16 @@
       <c r="L110">
         <v>-2.28</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C111">
         <v>1831.7</v>
@@ -5309,13 +5631,16 @@
       <c r="L111">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C112">
         <v>1103.6</v>
@@ -5347,13 +5672,16 @@
       <c r="L112">
         <v>-7.08</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C113">
         <v>1601.1</v>
@@ -5385,13 +5713,16 @@
       <c r="L113">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C114">
         <v>1530.6</v>
@@ -5423,13 +5754,16 @@
       <c r="L114">
         <v>2.03</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C115">
         <v>1172</v>
@@ -5461,13 +5795,16 @@
       <c r="L115">
         <v>-1.54</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C116">
         <v>5833</v>
@@ -5499,13 +5836,16 @@
       <c r="L116">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C117">
         <v>2797.2</v>
@@ -5537,13 +5877,16 @@
       <c r="L117">
         <v>-1.19</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C118">
         <v>8084</v>
@@ -5575,13 +5918,16 @@
       <c r="L118">
         <v>-6.02</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C119">
         <v>6370.5</v>
@@ -5613,13 +5959,16 @@
       <c r="L119">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C120">
         <v>5164</v>
@@ -5651,13 +6000,16 @@
       <c r="L120">
         <v>-6.87</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C121">
         <v>3119.2</v>
@@ -5689,13 +6041,16 @@
       <c r="L121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C122">
         <v>1494.7</v>
@@ -5727,13 +6082,16 @@
       <c r="L122">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C123">
         <v>245.64</v>
@@ -5765,13 +6123,16 @@
       <c r="L123">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B124" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C124">
         <v>5070.5</v>
@@ -5803,13 +6164,16 @@
       <c r="L124">
         <v>-2.03</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C125">
         <v>682.55</v>
@@ -5841,13 +6205,16 @@
       <c r="L125">
         <v>-5.53</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B126" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C126">
         <v>4311.3</v>
@@ -5879,13 +6246,16 @@
       <c r="L126">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C127">
         <v>4071.5</v>
@@ -5917,13 +6287,16 @@
       <c r="L127">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C128">
         <v>3181.1</v>
@@ -5955,13 +6328,16 @@
       <c r="L128">
         <v>2.3</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B129" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C129">
         <v>13267</v>
@@ -5993,13 +6369,16 @@
       <c r="L129">
         <v>-4.23</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B130" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C130">
         <v>2793.8</v>
@@ -6031,13 +6410,16 @@
       <c r="L130">
         <v>-7.73</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C131">
         <v>545.85</v>
@@ -6069,13 +6451,16 @@
       <c r="L131">
         <v>-1.63</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C132">
         <v>1698.4</v>
@@ -6107,13 +6492,16 @@
       <c r="L132">
         <v>-4.42</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C133">
         <v>282.9</v>
@@ -6145,13 +6533,16 @@
       <c r="L133">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C134">
         <v>2019.9</v>
@@ -6183,13 +6574,16 @@
       <c r="L134">
         <v>-5.08</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C135">
         <v>302.3</v>
@@ -6221,13 +6615,16 @@
       <c r="L135">
         <v>-9.65</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C136">
         <v>104.21</v>
@@ -6259,13 +6656,16 @@
       <c r="L136">
         <v>12.43</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C137">
         <v>2686.8</v>
@@ -6297,13 +6697,16 @@
       <c r="L137">
         <v>-8.390000000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C138">
         <v>70.70999999999999</v>
@@ -6335,13 +6738,16 @@
       <c r="L138">
         <v>-6.54</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C139">
         <v>726.5</v>
@@ -6373,13 +6779,16 @@
       <c r="L139">
         <v>-2.06</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C140">
         <v>3996.7</v>
@@ -6411,13 +6820,16 @@
       <c r="L140">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C141">
         <v>173.23</v>
@@ -6449,13 +6861,16 @@
       <c r="L141">
         <v>-17.75</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C142">
         <v>322.9</v>
@@ -6487,13 +6902,16 @@
       <c r="L142">
         <v>-1.81</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C143">
         <v>26455</v>
@@ -6525,13 +6943,16 @@
       <c r="L143">
         <v>-7.45</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C144">
         <v>11580</v>
@@ -6563,13 +6984,16 @@
       <c r="L144">
         <v>-2.94</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C145">
         <v>749.7</v>
@@ -6601,13 +7025,16 @@
       <c r="L145">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C146">
         <v>2332.9</v>
@@ -6639,13 +7066,16 @@
       <c r="L146">
         <v>-6.47</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C147">
         <v>789.35</v>
@@ -6677,13 +7107,16 @@
       <c r="L147">
         <v>-7.02</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C148">
         <v>462.6</v>
@@ -6715,13 +7148,16 @@
       <c r="L148">
         <v>-1.83</v>
       </c>
-    </row>
-    <row r="149" spans="1:12">
+      <c r="M148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C149">
         <v>1022.6</v>
@@ -6753,13 +7189,16 @@
       <c r="L149">
         <v>-4.74</v>
       </c>
-    </row>
-    <row r="150" spans="1:12">
+      <c r="M149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C150">
         <v>1112</v>
@@ -6791,13 +7230,16 @@
       <c r="L150">
         <v>-6.1</v>
       </c>
-    </row>
-    <row r="151" spans="1:12">
+      <c r="M150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C151">
         <v>253.97</v>
@@ -6829,13 +7271,16 @@
       <c r="L151">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="152" spans="1:12">
+      <c r="M151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C152">
         <v>72.7</v>
@@ -6867,13 +7312,16 @@
       <c r="L152">
         <v>-2.59</v>
       </c>
-    </row>
-    <row r="153" spans="1:12">
+      <c r="M152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C153">
         <v>132.25</v>
@@ -6905,13 +7353,16 @@
       <c r="L153">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="154" spans="1:12">
+      <c r="M153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C154">
         <v>166.33</v>
@@ -6943,13 +7394,16 @@
       <c r="L154">
         <v>-8.51</v>
       </c>
-    </row>
-    <row r="155" spans="1:12">
+      <c r="M154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C155">
         <v>504.65</v>
@@ -6981,13 +7435,16 @@
       <c r="L155">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="156" spans="1:12">
+      <c r="M155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C156">
         <v>180.22</v>
@@ -7019,13 +7476,16 @@
       <c r="L156">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="157" spans="1:12">
+      <c r="M156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C157">
         <v>455.25</v>
@@ -7057,13 +7517,16 @@
       <c r="L157">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="M157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C158">
         <v>164.12</v>
@@ -7095,13 +7558,16 @@
       <c r="L158">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="159" spans="1:12">
+      <c r="M158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B159" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C159">
         <v>421.05</v>
@@ -7133,13 +7599,16 @@
       <c r="L159">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="160" spans="1:12">
+      <c r="M159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C160">
         <v>245.35</v>
@@ -7171,13 +7640,16 @@
       <c r="L160">
         <v>-2.07</v>
       </c>
-    </row>
-    <row r="161" spans="1:12">
+      <c r="M160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B161" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C161">
         <v>272.15</v>
@@ -7209,13 +7681,16 @@
       <c r="L161">
         <v>-2.05</v>
       </c>
-    </row>
-    <row r="162" spans="1:12">
+      <c r="M161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B162" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C162">
         <v>1539.7</v>
@@ -7247,13 +7722,16 @@
       <c r="L162">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="163" spans="1:12">
+      <c r="M162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B163" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C163">
         <v>134.7</v>
@@ -7285,13 +7763,16 @@
       <c r="L163">
         <v>-12.13</v>
       </c>
-    </row>
-    <row r="164" spans="1:12">
+      <c r="M163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C164">
         <v>5777.5</v>
@@ -7323,13 +7804,16 @@
       <c r="L164">
         <v>-15.56</v>
       </c>
-    </row>
-    <row r="165" spans="1:12">
+      <c r="M164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B165" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C165">
         <v>141.36</v>
@@ -7361,13 +7845,16 @@
       <c r="L165">
         <v>-6.67</v>
       </c>
-    </row>
-    <row r="166" spans="1:12">
+      <c r="M165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B166" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C166">
         <v>116.74</v>
@@ -7399,13 +7886,16 @@
       <c r="L166">
         <v>-4.91</v>
       </c>
-    </row>
-    <row r="167" spans="1:12">
+      <c r="M166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B167" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C167">
         <v>117.59</v>
@@ -7437,13 +7927,16 @@
       <c r="L167">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="168" spans="1:12">
+      <c r="M167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B168" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C168">
         <v>287.25</v>
@@ -7475,13 +7968,16 @@
       <c r="L168">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="169" spans="1:12">
+      <c r="M168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B169" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C169">
         <v>147.21</v>
@@ -7513,13 +8009,16 @@
       <c r="L169">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="170" spans="1:12">
+      <c r="M169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B170" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C170">
         <v>148.69</v>
@@ -7551,13 +8050,16 @@
       <c r="L170">
         <v>14.39</v>
       </c>
-    </row>
-    <row r="171" spans="1:12">
+      <c r="M170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B171" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C171">
         <v>873.1</v>
@@ -7589,13 +8091,16 @@
       <c r="L171">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="172" spans="1:12">
+      <c r="M171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B172" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C172">
         <v>123.05</v>
@@ -7627,13 +8132,16 @@
       <c r="L172">
         <v>1.59</v>
       </c>
-    </row>
-    <row r="173" spans="1:12">
+      <c r="M172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B173" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C173">
         <v>983.6</v>
@@ -7665,13 +8173,16 @@
       <c r="L173">
         <v>5.74</v>
       </c>
-    </row>
-    <row r="174" spans="1:12">
+      <c r="M173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B174" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C174">
         <v>152.85</v>
@@ -7703,13 +8214,16 @@
       <c r="L174">
         <v>3.93</v>
       </c>
-    </row>
-    <row r="175" spans="1:12">
+      <c r="M174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B175" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C175">
         <v>5701</v>
@@ -7741,13 +8255,16 @@
       <c r="L175">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="176" spans="1:12">
+      <c r="M175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B176" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C176">
         <v>1208</v>
@@ -7779,13 +8296,16 @@
       <c r="L176">
         <v>9.880000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:12">
+      <c r="M176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B177" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C177">
         <v>393.25</v>
@@ -7817,13 +8337,16 @@
       <c r="L177">
         <v>7.52</v>
       </c>
-    </row>
-    <row r="178" spans="1:12">
+      <c r="M177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B178" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C178">
         <v>1507.5</v>
@@ -7855,13 +8378,16 @@
       <c r="L178">
         <v>-3.86</v>
       </c>
-    </row>
-    <row r="179" spans="1:12">
+      <c r="M178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B179" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C179">
         <v>6412</v>
@@ -7893,13 +8419,16 @@
       <c r="L179">
         <v>-0.41</v>
       </c>
-    </row>
-    <row r="180" spans="1:12">
+      <c r="M179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C180">
         <v>1236.1</v>
@@ -7931,13 +8460,16 @@
       <c r="L180">
         <v>-4.13</v>
       </c>
-    </row>
-    <row r="181" spans="1:12">
+      <c r="M180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C181">
         <v>1881.5</v>
@@ -7969,13 +8501,16 @@
       <c r="L181">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="182" spans="1:12">
+      <c r="M181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B182" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C182">
         <v>977.55</v>
@@ -8007,13 +8542,16 @@
       <c r="L182">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="183" spans="1:12">
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B183" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C183">
         <v>2042.3</v>
@@ -8045,13 +8583,16 @@
       <c r="L183">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="184" spans="1:12">
+      <c r="M183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B184" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C184">
         <v>2241.9</v>
@@ -8083,13 +8624,16 @@
       <c r="L184">
         <v>-6.84</v>
       </c>
-    </row>
-    <row r="185" spans="1:12">
+      <c r="M184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B185" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C185">
         <v>184.87</v>
@@ -8121,13 +8665,16 @@
       <c r="L185">
         <v>-8.529999999999999</v>
       </c>
-    </row>
-    <row r="186" spans="1:12">
+      <c r="M185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B186" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C186">
         <v>1776.8</v>
@@ -8159,13 +8706,16 @@
       <c r="L186">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="187" spans="1:12">
+      <c r="M186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B187" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C187">
         <v>3745.2</v>
@@ -8197,13 +8747,16 @@
       <c r="L187">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="188" spans="1:12">
+      <c r="M187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B188" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C188">
         <v>928.5</v>
@@ -8235,13 +8788,16 @@
       <c r="L188">
         <v>-7.27</v>
       </c>
-    </row>
-    <row r="189" spans="1:12">
+      <c r="M188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B189" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C189">
         <v>1266.3</v>
@@ -8273,13 +8829,16 @@
       <c r="L189">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="190" spans="1:12">
+      <c r="M189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B190" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C190">
         <v>149.63</v>
@@ -8311,13 +8870,16 @@
       <c r="L190">
         <v>-14.8</v>
       </c>
-    </row>
-    <row r="191" spans="1:12">
+      <c r="M190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B191" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C191">
         <v>255.99</v>
@@ -8349,13 +8911,16 @@
       <c r="L191">
         <v>8.57</v>
       </c>
-    </row>
-    <row r="192" spans="1:12">
+      <c r="M191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C192">
         <v>989.8</v>
@@ -8387,13 +8952,16 @@
       <c r="L192">
         <v>-1.37</v>
       </c>
-    </row>
-    <row r="193" spans="1:12">
+      <c r="M192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C193">
         <v>1357.8</v>
@@ -8425,13 +8993,16 @@
       <c r="L193">
         <v>-0.39</v>
       </c>
-    </row>
-    <row r="194" spans="1:12">
+      <c r="M193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C194">
         <v>79.34999999999999</v>
@@ -8463,13 +9034,16 @@
       <c r="L194">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="195" spans="1:12">
+      <c r="M194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C195">
         <v>2069.9</v>
@@ -8501,13 +9075,16 @@
       <c r="L195">
         <v>-4.21</v>
       </c>
-    </row>
-    <row r="196" spans="1:12">
+      <c r="M195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B196" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C196">
         <v>308.25</v>
@@ -8539,13 +9116,16 @@
       <c r="L196">
         <v>-5.18</v>
       </c>
-    </row>
-    <row r="197" spans="1:12">
+      <c r="M196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B197" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C197">
         <v>22.7</v>
@@ -8577,13 +9157,16 @@
       <c r="L197">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="198" spans="1:12">
+      <c r="M197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B198" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C198">
         <v>22.7</v>
@@ -8615,13 +9198,16 @@
       <c r="L198">
         <v>-0.13</v>
       </c>
-    </row>
-    <row r="199" spans="1:12">
+      <c r="M198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C199">
         <v>721.3</v>
@@ -8653,13 +9239,16 @@
       <c r="L199">
         <v>-6.81</v>
       </c>
-    </row>
-    <row r="200" spans="1:12">
+      <c r="M199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C200">
         <v>2094</v>
@@ -8691,13 +9280,16 @@
       <c r="L200">
         <v>-8.82</v>
       </c>
-    </row>
-    <row r="201" spans="1:12">
+      <c r="M200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C201">
         <v>230.76</v>
@@ -8729,13 +9321,16 @@
       <c r="L201">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="202" spans="1:12">
+      <c r="M201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B202" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C202">
         <v>1160.2</v>
@@ -8767,13 +9362,16 @@
       <c r="L202">
         <v>-0.75</v>
       </c>
-    </row>
-    <row r="203" spans="1:12">
+      <c r="M202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C203">
         <v>1629.6</v>
@@ -8805,13 +9403,16 @@
       <c r="L203">
         <v>-4.6</v>
       </c>
-    </row>
-    <row r="204" spans="1:12">
+      <c r="M203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B204" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C204">
         <v>1731.7</v>
@@ -8843,13 +9444,16 @@
       <c r="L204">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="205" spans="1:12">
+      <c r="M204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B205" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C205">
         <v>1655.9</v>
@@ -8881,13 +9485,16 @@
       <c r="L205">
         <v>-5.82</v>
       </c>
-    </row>
-    <row r="206" spans="1:12">
+      <c r="M205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B206" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C206">
         <v>3988.6</v>
@@ -8919,13 +9526,16 @@
       <c r="L206">
         <v>-5.5</v>
       </c>
-    </row>
-    <row r="207" spans="1:12">
+      <c r="M206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B207" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C207">
         <v>1332</v>
@@ -8957,13 +9567,16 @@
       <c r="L207">
         <v>-3.88</v>
       </c>
-    </row>
-    <row r="208" spans="1:12">
+      <c r="M207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B208" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C208">
         <v>270.45</v>
@@ -8995,13 +9608,16 @@
       <c r="L208">
         <v>5.29</v>
       </c>
-    </row>
-    <row r="209" spans="1:12">
+      <c r="M208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C209">
         <v>2161.6</v>
@@ -9033,13 +9649,16 @@
       <c r="L209">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="210" spans="1:12">
+      <c r="M209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B210" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C210">
         <v>10.05</v>
@@ -9071,13 +9690,16 @@
       <c r="L210">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="211" spans="1:12">
+      <c r="M210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B211" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C211">
         <v>10.05</v>
@@ -9109,13 +9731,16 @@
       <c r="L211">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="212" spans="1:12">
+      <c r="M211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B212" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C212">
         <v>403.6</v>
@@ -9147,13 +9772,16 @@
       <c r="L212">
         <v>4.59</v>
       </c>
-    </row>
-    <row r="213" spans="1:12">
+      <c r="M212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B213" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C213">
         <v>38535</v>
@@ -9185,9 +9813,12 @@
       <c r="L213">
         <v>-5.82</v>
       </c>
+      <c r="M213">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L213">
+  <conditionalFormatting sqref="A6:M213">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -9207,7 +9838,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -9230,29 +9861,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -9289,13 +9921,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>6081.5</v>
@@ -9327,13 +9962,16 @@
       <c r="L6">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>110.21</v>
@@ -9365,13 +10003,16 @@
       <c r="L7">
         <v>3.02</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8">
         <v>1285.3</v>
@@ -9403,13 +10044,16 @@
       <c r="L8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9">
         <v>839.9</v>
@@ -9441,13 +10085,16 @@
       <c r="L9">
         <v>5.02</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>570.35</v>
@@ -9479,13 +10126,16 @@
       <c r="L10">
         <v>0.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>3855.1</v>
@@ -9517,13 +10167,16 @@
       <c r="L11">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12">
         <v>1483.9</v>
@@ -9555,13 +10208,16 @@
       <c r="L12">
         <v>4.65</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13">
         <v>971.5</v>
@@ -9593,13 +10249,16 @@
       <c r="L13">
         <v>5.46</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14">
         <v>1011.6</v>
@@ -9631,13 +10290,16 @@
       <c r="L14">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>355.85</v>
@@ -9669,13 +10331,16 @@
       <c r="L15">
         <v>4.46</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C16">
         <v>1293</v>
@@ -9707,13 +10372,16 @@
       <c r="L16">
         <v>1.24</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C17">
         <v>1144.5</v>
@@ -9745,13 +10413,16 @@
       <c r="L17">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>731.35</v>
@@ -9783,13 +10454,16 @@
       <c r="L18">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19">
         <v>1177.7</v>
@@ -9821,13 +10495,16 @@
       <c r="L19">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20">
         <v>345.45</v>
@@ -9859,13 +10536,16 @@
       <c r="L20">
         <v>10.51</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <v>612.25</v>
@@ -9897,13 +10577,16 @@
       <c r="L21">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C22">
         <v>279.05</v>
@@ -9935,13 +10618,16 @@
       <c r="L22">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23">
         <v>9867</v>
@@ -9973,13 +10659,16 @@
       <c r="L23">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>1697.9</v>
@@ -10011,13 +10700,16 @@
       <c r="L24">
         <v>11.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25">
         <v>838.25</v>
@@ -10049,13 +10741,16 @@
       <c r="L25">
         <v>15.83</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26">
         <v>1831.7</v>
@@ -10087,13 +10782,16 @@
       <c r="L26">
         <v>1.21</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C27">
         <v>1601.1</v>
@@ -10125,13 +10823,16 @@
       <c r="L27">
         <v>5.19</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C28">
         <v>1530.6</v>
@@ -10163,13 +10864,16 @@
       <c r="L28">
         <v>2.03</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C29">
         <v>5833</v>
@@ -10201,13 +10905,16 @@
       <c r="L29">
         <v>4.24</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C30">
         <v>3119.2</v>
@@ -10239,13 +10946,16 @@
       <c r="L30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C31">
         <v>1494.7</v>
@@ -10277,13 +10987,16 @@
       <c r="L31">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32">
         <v>4311.3</v>
@@ -10315,13 +11028,16 @@
       <c r="L32">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C33">
         <v>3181.1</v>
@@ -10353,13 +11069,16 @@
       <c r="L33">
         <v>2.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C34">
         <v>3996.7</v>
@@ -10391,13 +11110,16 @@
       <c r="L34">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C35">
         <v>749.7</v>
@@ -10429,13 +11151,16 @@
       <c r="L35">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C36">
         <v>253.97</v>
@@ -10467,13 +11192,16 @@
       <c r="L36">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37">
         <v>455.25</v>
@@ -10505,13 +11233,16 @@
       <c r="L37">
         <v>0.6899999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C38">
         <v>164.12</v>
@@ -10543,13 +11274,16 @@
       <c r="L38">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39">
         <v>117.59</v>
@@ -10581,13 +11315,16 @@
       <c r="L39">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C40">
         <v>287.25</v>
@@ -10619,13 +11356,16 @@
       <c r="L40">
         <v>3.72</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C41">
         <v>147.21</v>
@@ -10657,13 +11397,16 @@
       <c r="L41">
         <v>4.34</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42">
         <v>5701</v>
@@ -10695,13 +11438,16 @@
       <c r="L42">
         <v>4.95</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43">
         <v>1881.5</v>
@@ -10733,13 +11479,16 @@
       <c r="L43">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C44">
         <v>977.55</v>
@@ -10771,13 +11520,16 @@
       <c r="L44">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C45">
         <v>2042.3</v>
@@ -10809,13 +11561,16 @@
       <c r="L45">
         <v>6.44</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C46">
         <v>1776.8</v>
@@ -10847,13 +11602,16 @@
       <c r="L46">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C47">
         <v>1266.3</v>
@@ -10885,13 +11643,16 @@
       <c r="L47">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C48">
         <v>230.76</v>
@@ -10923,13 +11684,16 @@
       <c r="L48">
         <v>2.14</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C49">
         <v>1731.7</v>
@@ -10961,13 +11725,16 @@
       <c r="L49">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C50">
         <v>10.05</v>
@@ -10999,13 +11766,16 @@
       <c r="L50">
         <v>6.46</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C51">
         <v>10.05</v>
@@ -11037,9 +11807,12 @@
       <c r="L51">
         <v>6.46</v>
       </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L51">
+  <conditionalFormatting sqref="A6:M51">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -11059,7 +11832,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -11082,29 +11855,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11141,13 +11915,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6">
         <v>7138</v>
@@ -11179,13 +11956,16 @@
       <c r="L6">
         <v>-16.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>1120</v>
@@ -11217,13 +11997,16 @@
       <c r="L7">
         <v>-4.42</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C8">
         <v>322.9</v>
@@ -11255,13 +12038,16 @@
       <c r="L8">
         <v>-1.81</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C9">
         <v>184.87</v>
@@ -11293,13 +12079,16 @@
       <c r="L9">
         <v>-8.529999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10">
         <v>2069.9</v>
@@ -11331,13 +12120,16 @@
       <c r="L10">
         <v>-4.21</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C11">
         <v>308.25</v>
@@ -11369,9 +12161,12 @@
       <c r="L11">
         <v>-5.18</v>
       </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L11">
+  <conditionalFormatting sqref="A6:M11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -11391,7 +12186,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -11414,29 +12209,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -11473,13 +12269,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6">
         <v>21742</v>
@@ -11511,13 +12310,16 @@
       <c r="L6">
         <v>28.23</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>145.83</v>
@@ -11549,13 +12351,16 @@
       <c r="L7">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>1409.7</v>
@@ -11587,13 +12392,16 @@
       <c r="L8">
         <v>7.77</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>7218.5</v>
@@ -11625,13 +12433,16 @@
       <c r="L9">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10">
         <v>501.3</v>
@@ -11663,13 +12474,16 @@
       <c r="L10">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>944.05</v>
@@ -11701,13 +12515,16 @@
       <c r="L11">
         <v>7.29</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12">
         <v>2875.8</v>
@@ -11739,13 +12556,16 @@
       <c r="L12">
         <v>14.61</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>5867</v>
@@ -11777,13 +12597,16 @@
       <c r="L13">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>514.4</v>
@@ -11815,13 +12638,16 @@
       <c r="L14">
         <v>2.19</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15">
         <v>1430.4</v>
@@ -11853,13 +12679,16 @@
       <c r="L15">
         <v>5.81</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C16">
         <v>2840.6</v>
@@ -11891,13 +12720,16 @@
       <c r="L16">
         <v>17.39</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17">
         <v>557.4</v>
@@ -11929,13 +12761,16 @@
       <c r="L17">
         <v>8.49</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>296.9</v>
@@ -11967,13 +12802,16 @@
       <c r="L18">
         <v>10.64</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C19">
         <v>245.64</v>
@@ -12005,13 +12843,16 @@
       <c r="L19">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C20">
         <v>282.9</v>
@@ -12043,13 +12884,16 @@
       <c r="L20">
         <v>19.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21">
         <v>104.21</v>
@@ -12081,13 +12925,16 @@
       <c r="L21">
         <v>12.43</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C22">
         <v>132.25</v>
@@ -12119,13 +12966,16 @@
       <c r="L22">
         <v>0.07000000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C23">
         <v>504.65</v>
@@ -12157,13 +13007,16 @@
       <c r="L23">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C24">
         <v>180.22</v>
@@ -12195,13 +13048,16 @@
       <c r="L24">
         <v>0.99</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C25">
         <v>421.05</v>
@@ -12233,13 +13089,16 @@
       <c r="L25">
         <v>2.01</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C26">
         <v>1539.7</v>
@@ -12271,13 +13130,16 @@
       <c r="L26">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C27">
         <v>873.1</v>
@@ -12309,13 +13171,16 @@
       <c r="L27">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <v>983.6</v>
@@ -12347,13 +13212,16 @@
       <c r="L28">
         <v>5.74</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C29">
         <v>1208</v>
@@ -12385,13 +13253,16 @@
       <c r="L29">
         <v>9.880000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B30" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30">
         <v>3745.2</v>
@@ -12423,13 +13294,16 @@
       <c r="L30">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C31">
         <v>2161.6</v>
@@ -12461,13 +13335,16 @@
       <c r="L31">
         <v>3.42</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C32">
         <v>403.6</v>
@@ -12499,9 +13376,12 @@
       <c r="L32">
         <v>4.59</v>
       </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L32">
+  <conditionalFormatting sqref="A6:M32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>
@@ -12521,7 +13401,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
@@ -12544,29 +13424,30 @@
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
@@ -12603,13 +13484,16 @@
       <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>151.74</v>
@@ -12641,13 +13525,16 @@
       <c r="L6">
         <v>-18.97</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>5775</v>
@@ -12679,13 +13566,16 @@
       <c r="L7">
         <v>-0.59</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8">
         <v>3448.5</v>
@@ -12717,13 +13607,16 @@
       <c r="L8">
         <v>-3.87</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C9">
         <v>2414.1</v>
@@ -12755,13 +13648,16 @@
       <c r="L9">
         <v>-3.32</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C10">
         <v>361.4</v>
@@ -12793,13 +13689,16 @@
       <c r="L10">
         <v>-8.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>5070.5</v>
@@ -12831,9 +13730,12 @@
       <c r="L11">
         <v>-2.03</v>
       </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6:L11">
+  <conditionalFormatting sqref="A6:M11">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND($L6&gt;0, $J6&gt;0, $K6&gt;0)</formula>
     </cfRule>

--- a/generated_data/Nov2025_Rollover_Data.xlsx
+++ b/generated_data/Nov2025_Rollover_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="254">
   <si>
     <t>Sectoral Index</t>
   </si>
@@ -762,6 +762,24 @@
   </si>
   <si>
     <t>Long Unwind (MoM- , %Roll- , Cost-)</t>
+  </si>
+  <si>
+    <t>Current Date</t>
+  </si>
+  <si>
+    <t>251125</t>
+  </si>
+  <si>
+    <t>Prev Date</t>
+  </si>
+  <si>
+    <t>281025</t>
+  </si>
+  <si>
+    <t>Next Date</t>
+  </si>
+  <si>
+    <t>301225</t>
   </si>
 </sst>
 </file>
@@ -1232,15 +1250,33 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
+      </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -9868,16 +9904,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -9927,40 +9981,40 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="C6">
-        <v>6081.5</v>
+        <v>5833</v>
       </c>
       <c r="D6">
-        <v>6110.5</v>
+        <v>5875.5</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>42.5</v>
       </c>
       <c r="F6">
-        <v>94.37</v>
+        <v>95.62</v>
       </c>
       <c r="G6">
-        <v>90.15000000000001</v>
+        <v>94.42</v>
       </c>
       <c r="H6">
-        <v>0.41</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I6">
-        <v>-0.25</v>
+        <v>-0.12</v>
       </c>
       <c r="J6">
-        <v>4.22</v>
+        <v>1.2</v>
       </c>
       <c r="K6">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="L6">
-        <v>8.41</v>
+        <v>4.24</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -9971,37 +10025,37 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
-        <v>110.21</v>
+        <v>6081.5</v>
       </c>
       <c r="D7">
-        <v>110.99</v>
+        <v>6110.5</v>
       </c>
       <c r="E7">
-        <v>0.78</v>
+        <v>29</v>
       </c>
       <c r="F7">
-        <v>96.47</v>
+        <v>94.37</v>
       </c>
       <c r="G7">
-        <v>96.2</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="H7">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="I7">
-        <v>0.5600000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="J7">
-        <v>0.27</v>
+        <v>4.22</v>
       </c>
       <c r="K7">
-        <v>0.08</v>
+        <v>0.66</v>
       </c>
       <c r="L7">
-        <v>3.02</v>
+        <v>8.41</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -10009,40 +10063,40 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="C8">
-        <v>1285.3</v>
+        <v>1530.6</v>
       </c>
       <c r="D8">
-        <v>1292.4</v>
+        <v>1538.9</v>
       </c>
       <c r="E8">
-        <v>7.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F8">
-        <v>97.28</v>
+        <v>96.36</v>
       </c>
       <c r="G8">
-        <v>92.97</v>
+        <v>92.47</v>
       </c>
       <c r="H8">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="I8">
-        <v>0.47</v>
+        <v>0.04</v>
       </c>
       <c r="J8">
-        <v>4.32</v>
+        <v>3.89</v>
       </c>
       <c r="K8">
-        <v>0.23</v>
+        <v>0.53</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>2.03</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -10050,40 +10104,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C9">
-        <v>839.9</v>
+        <v>355.85</v>
       </c>
       <c r="D9">
-        <v>844.05</v>
+        <v>357.9</v>
       </c>
       <c r="E9">
-        <v>4.15</v>
+        <v>2.05</v>
       </c>
       <c r="F9">
-        <v>93.55</v>
+        <v>92.8</v>
       </c>
       <c r="G9">
-        <v>92.61</v>
+        <v>82.70999999999999</v>
       </c>
       <c r="H9">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="I9">
-        <v>0.6</v>
+        <v>0.24</v>
       </c>
       <c r="J9">
-        <v>0.9399999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="K9">
-        <v>0.13</v>
+        <v>0.47</v>
       </c>
       <c r="L9">
-        <v>5.02</v>
+        <v>4.46</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -10091,40 +10145,40 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C10">
-        <v>570.35</v>
+        <v>749.7</v>
       </c>
       <c r="D10">
-        <v>573.4</v>
+        <v>755.45</v>
       </c>
       <c r="E10">
-        <v>3.05</v>
+        <v>5.75</v>
       </c>
       <c r="F10">
-        <v>95.97</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="G10">
-        <v>94.58</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="H10">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="I10">
-        <v>0.63</v>
+        <v>0.36</v>
       </c>
       <c r="J10">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="K10">
-        <v>0.07000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="L10">
-        <v>0.89</v>
+        <v>6.7</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -10132,40 +10186,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="C11">
-        <v>3855.1</v>
+        <v>1601.1</v>
       </c>
       <c r="D11">
-        <v>3881.6</v>
+        <v>1610.2</v>
       </c>
       <c r="E11">
-        <v>26.5</v>
+        <v>9.1</v>
       </c>
       <c r="F11">
-        <v>94.91</v>
+        <v>96.44</v>
       </c>
       <c r="G11">
-        <v>93.59999999999999</v>
+        <v>93.89</v>
       </c>
       <c r="H11">
-        <v>0.58</v>
+        <v>0.76</v>
       </c>
       <c r="I11">
-        <v>0.48</v>
+        <v>0.33</v>
       </c>
       <c r="J11">
-        <v>1.31</v>
+        <v>2.55</v>
       </c>
       <c r="K11">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
       <c r="L11">
-        <v>3.72</v>
+        <v>5.19</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -10173,40 +10227,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C12">
-        <v>1483.9</v>
+        <v>731.35</v>
       </c>
       <c r="D12">
-        <v>1492.1</v>
+        <v>736.9</v>
       </c>
       <c r="E12">
-        <v>8.199999999999999</v>
+        <v>5.55</v>
       </c>
       <c r="F12">
-        <v>96.87</v>
+        <v>98.78</v>
       </c>
       <c r="G12">
-        <v>94.15000000000001</v>
+        <v>96.95999999999999</v>
       </c>
       <c r="H12">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="I12">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="J12">
-        <v>2.73</v>
+        <v>1.82</v>
       </c>
       <c r="K12">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="L12">
-        <v>4.65</v>
+        <v>1.57</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -10214,40 +10268,40 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="C13">
-        <v>971.5</v>
+        <v>253.97</v>
       </c>
       <c r="D13">
-        <v>977.15</v>
+        <v>255.7</v>
       </c>
       <c r="E13">
-        <v>5.65</v>
+        <v>1.73</v>
       </c>
       <c r="F13">
-        <v>98.44</v>
+        <v>93.29000000000001</v>
       </c>
       <c r="G13">
-        <v>96.68000000000001</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="H13">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="I13">
-        <v>0.63</v>
+        <v>0.39</v>
       </c>
       <c r="J13">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="K13">
-        <v>0.02</v>
+        <v>0.39</v>
       </c>
       <c r="L13">
-        <v>5.46</v>
+        <v>7.27</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -10255,40 +10309,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="C14">
-        <v>1011.6</v>
+        <v>5701</v>
       </c>
       <c r="D14">
-        <v>1017.3</v>
+        <v>5729.5</v>
       </c>
       <c r="E14">
-        <v>5.7</v>
+        <v>28.5</v>
       </c>
       <c r="F14">
-        <v>94.45</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="G14">
-        <v>94.18000000000001</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="H14">
-        <v>0.75</v>
+        <v>0.59</v>
       </c>
       <c r="I14">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="J14">
-        <v>0.26</v>
+        <v>3.22</v>
       </c>
       <c r="K14">
-        <v>0.08</v>
+        <v>0.37</v>
       </c>
       <c r="L14">
-        <v>0.74</v>
+        <v>4.95</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -10296,40 +10350,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C15">
-        <v>355.85</v>
+        <v>1144.5</v>
       </c>
       <c r="D15">
-        <v>357.9</v>
+        <v>1151.6</v>
       </c>
       <c r="E15">
-        <v>2.05</v>
+        <v>7.1</v>
       </c>
       <c r="F15">
-        <v>92.8</v>
+        <v>90.64</v>
       </c>
       <c r="G15">
-        <v>82.70999999999999</v>
+        <v>88.86</v>
       </c>
       <c r="H15">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="I15">
         <v>0.24</v>
       </c>
       <c r="J15">
-        <v>10.1</v>
+        <v>1.78</v>
       </c>
       <c r="K15">
-        <v>0.47</v>
+        <v>0.37</v>
       </c>
       <c r="L15">
-        <v>4.46</v>
+        <v>2.6</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -10337,40 +10391,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="C16">
-        <v>1293</v>
+        <v>3119.2</v>
       </c>
       <c r="D16">
-        <v>1298.5</v>
+        <v>3135.5</v>
       </c>
       <c r="E16">
-        <v>5.5</v>
+        <v>16.3</v>
       </c>
       <c r="F16">
-        <v>94.48</v>
+        <v>97.06999999999999</v>
       </c>
       <c r="G16">
-        <v>89.70999999999999</v>
+        <v>93.06</v>
       </c>
       <c r="H16">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="I16">
-        <v>0.54</v>
+        <v>0.37</v>
       </c>
       <c r="J16">
-        <v>4.77</v>
+        <v>4.01</v>
       </c>
       <c r="K16">
-        <v>0.17</v>
+        <v>0.36</v>
       </c>
       <c r="L16">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -10378,40 +10432,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="C17">
-        <v>1144.5</v>
+        <v>1697.9</v>
       </c>
       <c r="D17">
-        <v>1151.6</v>
+        <v>1710.1</v>
       </c>
       <c r="E17">
-        <v>7.1</v>
+        <v>12.2</v>
       </c>
       <c r="F17">
-        <v>90.64</v>
+        <v>95.22</v>
       </c>
       <c r="G17">
-        <v>88.86</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="H17">
-        <v>0.61</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I17">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
       <c r="J17">
-        <v>1.78</v>
+        <v>6.89</v>
       </c>
       <c r="K17">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="L17">
-        <v>2.6</v>
+        <v>11.4</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -10419,40 +10473,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="C18">
-        <v>731.35</v>
+        <v>230.76</v>
       </c>
       <c r="D18">
-        <v>736.9</v>
+        <v>232.28</v>
       </c>
       <c r="E18">
-        <v>5.55</v>
+        <v>1.52</v>
       </c>
       <c r="F18">
-        <v>98.78</v>
+        <v>96.81</v>
       </c>
       <c r="G18">
-        <v>96.95999999999999</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="H18">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I18">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="J18">
-        <v>1.82</v>
+        <v>4.64</v>
       </c>
       <c r="K18">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="L18">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -10460,40 +10514,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C19">
-        <v>1177.7</v>
+        <v>455.25</v>
       </c>
       <c r="D19">
-        <v>1183.6</v>
+        <v>458.5</v>
       </c>
       <c r="E19">
-        <v>5.9</v>
+        <v>3.25</v>
       </c>
       <c r="F19">
-        <v>97.88</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="G19">
-        <v>96.76000000000001</v>
+        <v>85.48</v>
       </c>
       <c r="H19">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I19">
-        <v>0.55</v>
+        <v>0.39</v>
       </c>
       <c r="J19">
-        <v>1.13</v>
+        <v>12.01</v>
       </c>
       <c r="K19">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="L19">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -10501,40 +10555,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="C20">
-        <v>345.45</v>
+        <v>4311.3</v>
       </c>
       <c r="D20">
-        <v>347.1</v>
+        <v>4341.3</v>
       </c>
       <c r="E20">
-        <v>1.65</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>98.36</v>
+        <v>92.25</v>
       </c>
       <c r="G20">
-        <v>95.29000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="H20">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="I20">
-        <v>0.5600000000000001</v>
+        <v>0.36</v>
       </c>
       <c r="J20">
-        <v>3.07</v>
+        <v>1.75</v>
       </c>
       <c r="K20">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="L20">
-        <v>10.51</v>
+        <v>0.6</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -10542,40 +10596,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C21">
-        <v>612.25</v>
+        <v>1831.7</v>
       </c>
       <c r="D21">
-        <v>615.85</v>
+        <v>1843.7</v>
       </c>
       <c r="E21">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="F21">
-        <v>98.11</v>
+        <v>96.2</v>
       </c>
       <c r="G21">
-        <v>94.04000000000001</v>
+        <v>92.5</v>
       </c>
       <c r="H21">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="I21">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="J21">
-        <v>4.08</v>
+        <v>3.7</v>
       </c>
       <c r="K21">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="L21">
-        <v>1.96</v>
+        <v>1.21</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -10583,40 +10637,40 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="C22">
-        <v>279.05</v>
+        <v>1285.3</v>
       </c>
       <c r="D22">
-        <v>281.1</v>
+        <v>1292.4</v>
       </c>
       <c r="E22">
-        <v>2.05</v>
+        <v>7.1</v>
       </c>
       <c r="F22">
-        <v>96.59999999999999</v>
+        <v>97.28</v>
       </c>
       <c r="G22">
-        <v>88.93000000000001</v>
+        <v>92.97</v>
       </c>
       <c r="H22">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I22">
-        <v>0.57</v>
+        <v>0.47</v>
       </c>
       <c r="J22">
-        <v>7.67</v>
+        <v>4.32</v>
       </c>
       <c r="K22">
-        <v>0.17</v>
+        <v>0.23</v>
       </c>
       <c r="L22">
-        <v>0.98</v>
+        <v>7</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -10624,40 +10678,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C23">
-        <v>9867</v>
+        <v>1483.9</v>
       </c>
       <c r="D23">
-        <v>9916</v>
+        <v>1492.1</v>
       </c>
       <c r="E23">
-        <v>49</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F23">
-        <v>90.81</v>
+        <v>96.87</v>
       </c>
       <c r="G23">
-        <v>88.48999999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="H23">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="I23">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="J23">
-        <v>2.32</v>
+        <v>2.73</v>
       </c>
       <c r="K23">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="L23">
-        <v>8.23</v>
+        <v>4.65</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -10665,40 +10719,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="C24">
-        <v>1697.9</v>
+        <v>977.55</v>
       </c>
       <c r="D24">
-        <v>1710.1</v>
+        <v>982.6</v>
       </c>
       <c r="E24">
-        <v>12.2</v>
+        <v>5.05</v>
       </c>
       <c r="F24">
-        <v>95.22</v>
+        <v>90.29000000000001</v>
       </c>
       <c r="G24">
-        <v>88.31999999999999</v>
+        <v>89.87</v>
       </c>
       <c r="H24">
-        <v>0.8100000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="I24">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="J24">
-        <v>6.89</v>
+        <v>0.42</v>
       </c>
       <c r="K24">
-        <v>0.32</v>
+        <v>0.22</v>
       </c>
       <c r="L24">
-        <v>11.4</v>
+        <v>1.87</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -10706,40 +10760,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="C25">
-        <v>838.25</v>
+        <v>3996.7</v>
       </c>
       <c r="D25">
-        <v>843.45</v>
+        <v>4021.3</v>
       </c>
       <c r="E25">
-        <v>5.2</v>
+        <v>24.6</v>
       </c>
       <c r="F25">
-        <v>95.7</v>
+        <v>97.11</v>
       </c>
       <c r="G25">
-        <v>95.58</v>
+        <v>88.88</v>
       </c>
       <c r="H25">
-        <v>0.47</v>
+        <v>0.7</v>
       </c>
       <c r="I25">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="J25">
-        <v>0.12</v>
+        <v>8.23</v>
       </c>
       <c r="K25">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="L25">
-        <v>15.83</v>
+        <v>0.6</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -10747,40 +10801,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>235</v>
       </c>
       <c r="C26">
-        <v>1831.7</v>
+        <v>1731.7</v>
       </c>
       <c r="D26">
-        <v>1843.7</v>
+        <v>1739.2</v>
       </c>
       <c r="E26">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="F26">
-        <v>96.2</v>
+        <v>95.27</v>
       </c>
       <c r="G26">
-        <v>92.5</v>
+        <v>90.97</v>
       </c>
       <c r="H26">
         <v>0.7</v>
       </c>
       <c r="I26">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="J26">
-        <v>3.7</v>
+        <v>4.29</v>
       </c>
       <c r="K26">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="L26">
-        <v>1.21</v>
+        <v>1.75</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -10788,40 +10842,40 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C27">
-        <v>1601.1</v>
+        <v>279.05</v>
       </c>
       <c r="D27">
-        <v>1610.2</v>
+        <v>281.1</v>
       </c>
       <c r="E27">
-        <v>9.1</v>
+        <v>2.05</v>
       </c>
       <c r="F27">
-        <v>96.44</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="G27">
-        <v>93.89</v>
+        <v>88.93000000000001</v>
       </c>
       <c r="H27">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="I27">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
       <c r="J27">
-        <v>2.55</v>
+        <v>7.67</v>
       </c>
       <c r="K27">
-        <v>0.42</v>
+        <v>0.17</v>
       </c>
       <c r="L27">
-        <v>5.19</v>
+        <v>0.98</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -10829,40 +10883,40 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>1530.6</v>
+        <v>1293</v>
       </c>
       <c r="D28">
-        <v>1538.9</v>
+        <v>1298.5</v>
       </c>
       <c r="E28">
-        <v>8.300000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="F28">
-        <v>96.36</v>
+        <v>94.48</v>
       </c>
       <c r="G28">
-        <v>92.47</v>
+        <v>89.70999999999999</v>
       </c>
       <c r="H28">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="I28">
-        <v>0.04</v>
+        <v>0.54</v>
       </c>
       <c r="J28">
-        <v>3.89</v>
+        <v>4.77</v>
       </c>
       <c r="K28">
-        <v>0.53</v>
+        <v>0.17</v>
       </c>
       <c r="L28">
-        <v>2.03</v>
+        <v>1.24</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -10870,40 +10924,40 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>218</v>
       </c>
       <c r="C29">
-        <v>5833</v>
+        <v>1776.8</v>
       </c>
       <c r="D29">
-        <v>5875.5</v>
+        <v>1783.8</v>
       </c>
       <c r="E29">
-        <v>42.5</v>
+        <v>7</v>
       </c>
       <c r="F29">
-        <v>95.62</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="G29">
-        <v>94.42</v>
+        <v>91.98</v>
       </c>
       <c r="H29">
-        <v>0.6899999999999999</v>
+        <v>0.59</v>
       </c>
       <c r="I29">
-        <v>-0.12</v>
+        <v>0.43</v>
       </c>
       <c r="J29">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="K29">
-        <v>0.8</v>
+        <v>0.16</v>
       </c>
       <c r="L29">
-        <v>4.24</v>
+        <v>5.32</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -10914,37 +10968,37 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30">
-        <v>3119.2</v>
+        <v>1494.7</v>
       </c>
       <c r="D30">
-        <v>3135.5</v>
+        <v>1502.1</v>
       </c>
       <c r="E30">
-        <v>16.3</v>
+        <v>7.4</v>
       </c>
       <c r="F30">
-        <v>97.06999999999999</v>
+        <v>98.17</v>
       </c>
       <c r="G30">
-        <v>93.06</v>
+        <v>89.17</v>
       </c>
       <c r="H30">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="I30">
-        <v>0.37</v>
+        <v>0.53</v>
       </c>
       <c r="J30">
-        <v>4.01</v>
+        <v>9</v>
       </c>
       <c r="K30">
-        <v>0.36</v>
+        <v>0.15</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>3.27</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -10952,40 +11006,40 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="C31">
-        <v>1494.7</v>
+        <v>1881.5</v>
       </c>
       <c r="D31">
-        <v>1502.1</v>
+        <v>1891.7</v>
       </c>
       <c r="E31">
-        <v>7.4</v>
+        <v>10.2</v>
       </c>
       <c r="F31">
-        <v>98.17</v>
+        <v>97.52</v>
       </c>
       <c r="G31">
-        <v>89.17</v>
+        <v>94.23999999999999</v>
       </c>
       <c r="H31">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="I31">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>3.28</v>
       </c>
       <c r="K31">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="L31">
-        <v>3.27</v>
+        <v>3.66</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -10993,40 +11047,40 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="C32">
-        <v>4311.3</v>
+        <v>1266.3</v>
       </c>
       <c r="D32">
-        <v>4341.3</v>
+        <v>1273.1</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>6.8</v>
       </c>
       <c r="F32">
-        <v>92.25</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="G32">
-        <v>90.5</v>
+        <v>92.89</v>
       </c>
       <c r="H32">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="I32">
-        <v>0.36</v>
+        <v>0.61</v>
       </c>
       <c r="J32">
-        <v>1.75</v>
+        <v>3.18</v>
       </c>
       <c r="K32">
-        <v>0.26</v>
+        <v>0.14</v>
       </c>
       <c r="L32">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -11034,40 +11088,40 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B33" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C33">
-        <v>3181.1</v>
+        <v>9867</v>
       </c>
       <c r="D33">
-        <v>3200.7</v>
+        <v>9916</v>
       </c>
       <c r="E33">
-        <v>19.6</v>
+        <v>49</v>
       </c>
       <c r="F33">
-        <v>97.68000000000001</v>
+        <v>90.81</v>
       </c>
       <c r="G33">
-        <v>90.34</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="H33">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I33">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="J33">
-        <v>7.34</v>
+        <v>2.32</v>
       </c>
       <c r="K33">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="L33">
-        <v>2.3</v>
+        <v>8.23</v>
       </c>
       <c r="M33">
         <v>0</v>
@@ -11075,40 +11129,40 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="C34">
-        <v>3996.7</v>
+        <v>117.59</v>
       </c>
       <c r="D34">
-        <v>4021.3</v>
+        <v>118.4</v>
       </c>
       <c r="E34">
-        <v>24.6</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F34">
-        <v>97.11</v>
+        <v>97.47</v>
       </c>
       <c r="G34">
-        <v>88.88</v>
+        <v>92.75</v>
       </c>
       <c r="H34">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
+        <v>0.59</v>
       </c>
       <c r="J34">
-        <v>8.23</v>
+        <v>4.72</v>
       </c>
       <c r="K34">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="L34">
-        <v>0.6</v>
+        <v>6.6</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -11116,40 +11170,40 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
       <c r="C35">
-        <v>749.7</v>
+        <v>839.9</v>
       </c>
       <c r="D35">
-        <v>755.45</v>
+        <v>844.05</v>
       </c>
       <c r="E35">
-        <v>5.75</v>
+        <v>4.15</v>
       </c>
       <c r="F35">
-        <v>95.29000000000001</v>
+        <v>93.55</v>
       </c>
       <c r="G35">
-        <v>94.01000000000001</v>
+        <v>92.61</v>
       </c>
       <c r="H35">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="I35">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="J35">
-        <v>1.28</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K35">
-        <v>0.44</v>
+        <v>0.13</v>
       </c>
       <c r="L35">
-        <v>6.7</v>
+        <v>5.02</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -11157,40 +11211,40 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>183</v>
+        <v>117</v>
       </c>
       <c r="C36">
-        <v>253.97</v>
+        <v>612.25</v>
       </c>
       <c r="D36">
-        <v>255.7</v>
+        <v>615.85</v>
       </c>
       <c r="E36">
-        <v>1.73</v>
+        <v>3.6</v>
       </c>
       <c r="F36">
-        <v>93.29000000000001</v>
+        <v>98.11</v>
       </c>
       <c r="G36">
-        <v>91.56999999999999</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="H36">
-        <v>0.78</v>
+        <v>0.66</v>
       </c>
       <c r="I36">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="J36">
-        <v>1.72</v>
+        <v>4.08</v>
       </c>
       <c r="K36">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="L36">
-        <v>7.27</v>
+        <v>1.96</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -11198,40 +11252,40 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C37">
-        <v>455.25</v>
+        <v>2042.3</v>
       </c>
       <c r="D37">
-        <v>458.5</v>
+        <v>2055.1</v>
       </c>
       <c r="E37">
-        <v>3.25</v>
+        <v>12.8</v>
       </c>
       <c r="F37">
-        <v>97.48999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="G37">
-        <v>85.48</v>
+        <v>94.22</v>
       </c>
       <c r="H37">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I37">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="J37">
-        <v>12.01</v>
+        <v>1.18</v>
       </c>
       <c r="K37">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="L37">
-        <v>0.6899999999999999</v>
+        <v>6.44</v>
       </c>
       <c r="M37">
         <v>0</v>
@@ -11239,40 +11293,40 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C38">
-        <v>164.12</v>
+        <v>1177.7</v>
       </c>
       <c r="D38">
-        <v>164.95</v>
+        <v>1183.6</v>
       </c>
       <c r="E38">
-        <v>0.83</v>
+        <v>5.9</v>
       </c>
       <c r="F38">
-        <v>87.92</v>
+        <v>97.88</v>
       </c>
       <c r="G38">
-        <v>83.56999999999999</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="H38">
-        <v>0.62</v>
+        <v>0.65</v>
       </c>
       <c r="I38">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="J38">
-        <v>4.34</v>
+        <v>1.13</v>
       </c>
       <c r="K38">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="L38">
-        <v>6.21</v>
+        <v>0.75</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -11280,40 +11334,40 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>199</v>
+        <v>160</v>
       </c>
       <c r="C39">
-        <v>117.59</v>
+        <v>3181.1</v>
       </c>
       <c r="D39">
-        <v>118.4</v>
+        <v>3200.7</v>
       </c>
       <c r="E39">
-        <v>0.8100000000000001</v>
+        <v>19.6</v>
       </c>
       <c r="F39">
-        <v>97.47</v>
+        <v>97.68000000000001</v>
       </c>
       <c r="G39">
-        <v>92.75</v>
+        <v>90.34</v>
       </c>
       <c r="H39">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="I39">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="J39">
-        <v>4.72</v>
+        <v>7.34</v>
       </c>
       <c r="K39">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="L39">
-        <v>6.6</v>
+        <v>2.3</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -11321,37 +11375,37 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="C40">
-        <v>287.25</v>
+        <v>3855.1</v>
       </c>
       <c r="D40">
-        <v>288.55</v>
+        <v>3881.6</v>
       </c>
       <c r="E40">
-        <v>1.3</v>
+        <v>26.5</v>
       </c>
       <c r="F40">
-        <v>93.03</v>
+        <v>94.91</v>
       </c>
       <c r="G40">
-        <v>90.34</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H40">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I40">
-        <v>0.55</v>
+        <v>0.48</v>
       </c>
       <c r="J40">
-        <v>2.68</v>
+        <v>1.31</v>
       </c>
       <c r="K40">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="L40">
         <v>3.72</v>
@@ -11362,40 +11416,40 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="C41">
-        <v>147.21</v>
+        <v>110.21</v>
       </c>
       <c r="D41">
-        <v>148.23</v>
+        <v>110.99</v>
       </c>
       <c r="E41">
-        <v>1.02</v>
+        <v>0.78</v>
       </c>
       <c r="F41">
-        <v>95.48</v>
+        <v>96.47</v>
       </c>
       <c r="G41">
-        <v>95.47</v>
+        <v>96.2</v>
       </c>
       <c r="H41">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="I41">
-        <v>0.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J41">
-        <v>0.02</v>
+        <v>0.27</v>
       </c>
       <c r="K41">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="L41">
-        <v>4.34</v>
+        <v>3.02</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -11403,40 +11457,40 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>207</v>
+        <v>82</v>
       </c>
       <c r="C42">
-        <v>5701</v>
+        <v>1011.6</v>
       </c>
       <c r="D42">
-        <v>5729.5</v>
+        <v>1017.3</v>
       </c>
       <c r="E42">
-        <v>28.5</v>
+        <v>5.7</v>
       </c>
       <c r="F42">
-        <v>97.06999999999999</v>
+        <v>94.45</v>
       </c>
       <c r="G42">
-        <v>93.84999999999999</v>
+        <v>94.18000000000001</v>
       </c>
       <c r="H42">
-        <v>0.59</v>
+        <v>0.75</v>
       </c>
       <c r="I42">
-        <v>0.22</v>
+        <v>0.67</v>
       </c>
       <c r="J42">
-        <v>3.22</v>
+        <v>0.26</v>
       </c>
       <c r="K42">
-        <v>0.37</v>
+        <v>0.08</v>
       </c>
       <c r="L42">
-        <v>4.95</v>
+        <v>0.74</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -11444,40 +11498,40 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="C43">
-        <v>1881.5</v>
+        <v>570.35</v>
       </c>
       <c r="D43">
-        <v>1891.7</v>
+        <v>573.4</v>
       </c>
       <c r="E43">
-        <v>10.2</v>
+        <v>3.05</v>
       </c>
       <c r="F43">
-        <v>97.52</v>
+        <v>95.97</v>
       </c>
       <c r="G43">
-        <v>94.23999999999999</v>
+        <v>94.58</v>
       </c>
       <c r="H43">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I43">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="J43">
-        <v>3.28</v>
+        <v>1.39</v>
       </c>
       <c r="K43">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L43">
-        <v>3.66</v>
+        <v>0.89</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -11485,40 +11539,40 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C44">
-        <v>977.55</v>
+        <v>164.12</v>
       </c>
       <c r="D44">
-        <v>982.6</v>
+        <v>164.95</v>
       </c>
       <c r="E44">
-        <v>5.05</v>
+        <v>0.83</v>
       </c>
       <c r="F44">
-        <v>90.29000000000001</v>
+        <v>87.92</v>
       </c>
       <c r="G44">
-        <v>89.87</v>
+        <v>83.56999999999999</v>
       </c>
       <c r="H44">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="I44">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J44">
-        <v>0.42</v>
+        <v>4.34</v>
       </c>
       <c r="K44">
-        <v>0.22</v>
+        <v>0.06</v>
       </c>
       <c r="L44">
-        <v>1.87</v>
+        <v>6.21</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -11526,40 +11580,40 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="C45">
-        <v>2042.3</v>
+        <v>10.05</v>
       </c>
       <c r="D45">
-        <v>2055.1</v>
+        <v>10.13</v>
       </c>
       <c r="E45">
-        <v>12.8</v>
+        <v>0.08</v>
       </c>
       <c r="F45">
-        <v>95.40000000000001</v>
+        <v>96.25</v>
       </c>
       <c r="G45">
-        <v>94.22</v>
+        <v>96.09</v>
       </c>
       <c r="H45">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="I45">
-        <v>0.55</v>
+        <v>0.63</v>
       </c>
       <c r="J45">
-        <v>1.18</v>
+        <v>0.15</v>
       </c>
       <c r="K45">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="L45">
-        <v>6.44</v>
+        <v>6.46</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -11567,40 +11621,40 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="C46">
-        <v>1776.8</v>
+        <v>10.05</v>
       </c>
       <c r="D46">
-        <v>1783.8</v>
+        <v>10.13</v>
       </c>
       <c r="E46">
-        <v>7</v>
+        <v>0.08</v>
       </c>
       <c r="F46">
-        <v>93.45999999999999</v>
+        <v>96.25</v>
       </c>
       <c r="G46">
-        <v>91.98</v>
+        <v>96.09</v>
       </c>
       <c r="H46">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="I46">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
       <c r="J46">
-        <v>1.48</v>
+        <v>0.15</v>
       </c>
       <c r="K46">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="L46">
-        <v>5.32</v>
+        <v>6.46</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -11608,40 +11662,40 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>221</v>
+        <v>137</v>
       </c>
       <c r="C47">
-        <v>1266.3</v>
+        <v>838.25</v>
       </c>
       <c r="D47">
-        <v>1273.1</v>
+        <v>843.45</v>
       </c>
       <c r="E47">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="F47">
-        <v>96.06999999999999</v>
+        <v>95.7</v>
       </c>
       <c r="G47">
-        <v>92.89</v>
+        <v>95.58</v>
       </c>
       <c r="H47">
-        <v>0.75</v>
+        <v>0.47</v>
       </c>
       <c r="I47">
-        <v>0.61</v>
+        <v>0.42</v>
       </c>
       <c r="J47">
-        <v>3.18</v>
+        <v>0.12</v>
       </c>
       <c r="K47">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="L47">
-        <v>1.6</v>
+        <v>15.83</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -11649,40 +11703,40 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="C48">
-        <v>230.76</v>
+        <v>287.25</v>
       </c>
       <c r="D48">
-        <v>232.28</v>
+        <v>288.55</v>
       </c>
       <c r="E48">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="F48">
-        <v>96.81</v>
+        <v>93.03</v>
       </c>
       <c r="G48">
-        <v>92.18000000000001</v>
+        <v>90.34</v>
       </c>
       <c r="H48">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="I48">
-        <v>0.45</v>
+        <v>0.55</v>
       </c>
       <c r="J48">
-        <v>4.64</v>
+        <v>2.68</v>
       </c>
       <c r="K48">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="L48">
-        <v>2.14</v>
+        <v>3.72</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -11690,40 +11744,40 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>107</v>
       </c>
       <c r="C49">
-        <v>1731.7</v>
+        <v>345.45</v>
       </c>
       <c r="D49">
-        <v>1739.2</v>
+        <v>347.1</v>
       </c>
       <c r="E49">
-        <v>7.5</v>
+        <v>1.65</v>
       </c>
       <c r="F49">
-        <v>95.27</v>
+        <v>98.36</v>
       </c>
       <c r="G49">
-        <v>90.97</v>
+        <v>95.29000000000001</v>
       </c>
       <c r="H49">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="I49">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J49">
-        <v>4.29</v>
+        <v>3.07</v>
       </c>
       <c r="K49">
-        <v>0.2</v>
+        <v>0.03</v>
       </c>
       <c r="L49">
-        <v>1.75</v>
+        <v>10.51</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -11731,40 +11785,40 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="C50">
-        <v>10.05</v>
+        <v>147.21</v>
       </c>
       <c r="D50">
-        <v>10.13</v>
+        <v>148.23</v>
       </c>
       <c r="E50">
-        <v>0.08</v>
+        <v>1.02</v>
       </c>
       <c r="F50">
-        <v>96.25</v>
+        <v>95.48</v>
       </c>
       <c r="G50">
-        <v>96.09</v>
+        <v>95.47</v>
       </c>
       <c r="H50">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="I50">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="J50">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="K50">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="L50">
-        <v>6.46</v>
+        <v>4.34</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -11772,40 +11826,40 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>81</v>
       </c>
       <c r="C51">
-        <v>10.05</v>
+        <v>971.5</v>
       </c>
       <c r="D51">
-        <v>10.13</v>
+        <v>977.15</v>
       </c>
       <c r="E51">
-        <v>0.08</v>
+        <v>5.65</v>
       </c>
       <c r="F51">
-        <v>96.25</v>
+        <v>98.44</v>
       </c>
       <c r="G51">
-        <v>96.09</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="H51">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="I51">
         <v>0.63</v>
       </c>
       <c r="J51">
-        <v>0.15</v>
+        <v>1.76</v>
       </c>
       <c r="K51">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="L51">
-        <v>6.46</v>
+        <v>5.46</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -11862,16 +11916,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -11921,40 +11993,40 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="C6">
-        <v>7138</v>
+        <v>1120</v>
       </c>
       <c r="D6">
-        <v>6941</v>
+        <v>1124.7</v>
       </c>
       <c r="E6">
-        <v>-197</v>
+        <v>4.7</v>
       </c>
       <c r="F6">
-        <v>90.19</v>
+        <v>80.86</v>
       </c>
       <c r="G6">
-        <v>89.58</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="H6">
-        <v>-3.05</v>
+        <v>0.28</v>
       </c>
       <c r="I6">
-        <v>-0.72</v>
+        <v>0.38</v>
       </c>
       <c r="J6">
-        <v>0.61</v>
+        <v>7.71</v>
       </c>
       <c r="K6">
-        <v>-2.33</v>
+        <v>-0.1</v>
       </c>
       <c r="L6">
-        <v>-16.28</v>
+        <v>-4.42</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -11962,40 +12034,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="C7">
-        <v>1120</v>
+        <v>184.87</v>
       </c>
       <c r="D7">
-        <v>1124.7</v>
+        <v>185.4</v>
       </c>
       <c r="E7">
-        <v>4.7</v>
+        <v>0.53</v>
       </c>
       <c r="F7">
-        <v>80.86</v>
+        <v>94.88</v>
       </c>
       <c r="G7">
-        <v>73.15000000000001</v>
+        <v>88.66</v>
       </c>
       <c r="H7">
-        <v>0.28</v>
+        <v>0.36</v>
       </c>
       <c r="I7">
-        <v>0.38</v>
+        <v>0.54</v>
       </c>
       <c r="J7">
-        <v>7.71</v>
+        <v>6.22</v>
       </c>
       <c r="K7">
-        <v>-0.1</v>
+        <v>-0.18</v>
       </c>
       <c r="L7">
-        <v>-4.42</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -12044,40 +12116,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C9">
-        <v>184.87</v>
+        <v>308.25</v>
       </c>
       <c r="D9">
-        <v>185.4</v>
+        <v>310.25</v>
       </c>
       <c r="E9">
-        <v>0.53</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>94.88</v>
+        <v>89.66</v>
       </c>
       <c r="G9">
-        <v>88.66</v>
+        <v>85.58</v>
       </c>
       <c r="H9">
-        <v>0.36</v>
+        <v>0.76</v>
       </c>
       <c r="I9">
-        <v>0.54</v>
+        <v>0.93</v>
       </c>
       <c r="J9">
-        <v>6.22</v>
+        <v>4.08</v>
       </c>
       <c r="K9">
-        <v>-0.18</v>
+        <v>-0.17</v>
       </c>
       <c r="L9">
-        <v>-8.529999999999999</v>
+        <v>-5.18</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -12126,40 +12198,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>61</v>
       </c>
       <c r="C11">
-        <v>308.25</v>
+        <v>7138</v>
       </c>
       <c r="D11">
-        <v>310.25</v>
+        <v>6941</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>-197</v>
       </c>
       <c r="F11">
-        <v>89.66</v>
+        <v>90.19</v>
       </c>
       <c r="G11">
-        <v>85.58</v>
+        <v>89.58</v>
       </c>
       <c r="H11">
-        <v>0.76</v>
+        <v>-3.05</v>
       </c>
       <c r="I11">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="J11">
-        <v>4.08</v>
+        <v>0.61</v>
       </c>
       <c r="K11">
-        <v>-0.17</v>
+        <v>-2.33</v>
       </c>
       <c r="L11">
-        <v>-5.18</v>
+        <v>-16.28</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -12216,16 +12288,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -12316,40 +12406,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
       <c r="C7">
-        <v>145.83</v>
+        <v>282.9</v>
       </c>
       <c r="D7">
-        <v>146.49</v>
+        <v>284.7</v>
       </c>
       <c r="E7">
-        <v>0.66</v>
+        <v>1.8</v>
       </c>
       <c r="F7">
-        <v>91.67</v>
+        <v>88.13</v>
       </c>
       <c r="G7">
-        <v>93.51000000000001</v>
+        <v>92.64</v>
       </c>
       <c r="H7">
-        <v>0.33</v>
+        <v>0.51</v>
       </c>
       <c r="I7">
-        <v>-0.19</v>
+        <v>0.46</v>
       </c>
       <c r="J7">
-        <v>-1.84</v>
+        <v>-4.51</v>
       </c>
       <c r="K7">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="L7">
-        <v>4.09</v>
+        <v>19.2</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -12357,40 +12447,40 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C8">
-        <v>1409.7</v>
+        <v>2840.6</v>
       </c>
       <c r="D8">
-        <v>1418.3</v>
+        <v>2857.3</v>
       </c>
       <c r="E8">
-        <v>8.6</v>
+        <v>16.7</v>
       </c>
       <c r="F8">
-        <v>87.91</v>
+        <v>79.81</v>
       </c>
       <c r="G8">
-        <v>92.15000000000001</v>
+        <v>84.34</v>
       </c>
       <c r="H8">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="I8">
-        <v>0.18</v>
+        <v>0.61</v>
       </c>
       <c r="J8">
-        <v>-4.24</v>
+        <v>-4.53</v>
       </c>
       <c r="K8">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="L8">
-        <v>7.77</v>
+        <v>17.39</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -12398,40 +12488,40 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>7218.5</v>
+        <v>2875.8</v>
       </c>
       <c r="D9">
-        <v>7238</v>
+        <v>2890.4</v>
       </c>
       <c r="E9">
-        <v>19.5</v>
+        <v>14.6</v>
       </c>
       <c r="F9">
-        <v>85.68000000000001</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="G9">
-        <v>90.48</v>
+        <v>91.12</v>
       </c>
       <c r="H9">
-        <v>0.58</v>
+        <v>0.75</v>
       </c>
       <c r="I9">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="J9">
-        <v>-4.8</v>
+        <v>-10.44</v>
       </c>
       <c r="K9">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="L9">
-        <v>3.08</v>
+        <v>14.61</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -12439,40 +12529,40 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="C10">
-        <v>501.3</v>
+        <v>104.21</v>
       </c>
       <c r="D10">
-        <v>504.05</v>
+        <v>104.74</v>
       </c>
       <c r="E10">
-        <v>2.75</v>
+        <v>0.53</v>
       </c>
       <c r="F10">
-        <v>85.89</v>
+        <v>86.06999999999999</v>
       </c>
       <c r="G10">
-        <v>91.44</v>
+        <v>96.36</v>
       </c>
       <c r="H10">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="I10">
-        <v>0.2</v>
+        <v>0.63</v>
       </c>
       <c r="J10">
-        <v>-5.55</v>
+        <v>-10.29</v>
       </c>
       <c r="K10">
-        <v>0.48</v>
+        <v>0.09</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>12.43</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -12480,40 +12570,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C11">
-        <v>944.05</v>
+        <v>296.9</v>
       </c>
       <c r="D11">
-        <v>947.3</v>
+        <v>299</v>
       </c>
       <c r="E11">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
-        <v>93.31999999999999</v>
+        <v>78.48999999999999</v>
       </c>
       <c r="G11">
-        <v>93.92</v>
+        <v>89.66</v>
       </c>
       <c r="H11">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="I11">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="J11">
-        <v>-0.6</v>
+        <v>-11.16</v>
       </c>
       <c r="K11">
-        <v>0.34</v>
+        <v>0.21</v>
       </c>
       <c r="L11">
-        <v>7.29</v>
+        <v>10.64</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -12521,40 +12611,40 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
       <c r="C12">
-        <v>2875.8</v>
+        <v>1208</v>
       </c>
       <c r="D12">
-        <v>2890.4</v>
+        <v>1215.7</v>
       </c>
       <c r="E12">
-        <v>14.6</v>
+        <v>7.7</v>
       </c>
       <c r="F12">
-        <v>80.68000000000001</v>
+        <v>95.98</v>
       </c>
       <c r="G12">
-        <v>91.12</v>
+        <v>96.05</v>
       </c>
       <c r="H12">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="I12">
-        <v>0.37</v>
+        <v>0.61</v>
       </c>
       <c r="J12">
-        <v>-10.44</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K12">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="L12">
-        <v>14.61</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -12562,40 +12652,40 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="C13">
-        <v>5867</v>
+        <v>557.4</v>
       </c>
       <c r="D13">
-        <v>5892</v>
+        <v>560</v>
       </c>
       <c r="E13">
-        <v>25</v>
+        <v>2.6</v>
       </c>
       <c r="F13">
-        <v>89.26000000000001</v>
+        <v>94.03</v>
       </c>
       <c r="G13">
-        <v>94.92</v>
+        <v>94.38</v>
       </c>
       <c r="H13">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="I13">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="J13">
-        <v>-5.67</v>
+        <v>-0.36</v>
       </c>
       <c r="K13">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="L13">
-        <v>0.1</v>
+        <v>8.49</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -12603,40 +12693,40 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C14">
-        <v>514.4</v>
+        <v>1409.7</v>
       </c>
       <c r="D14">
-        <v>517.7</v>
+        <v>1418.3</v>
       </c>
       <c r="E14">
-        <v>3.3</v>
+        <v>8.6</v>
       </c>
       <c r="F14">
-        <v>80.56999999999999</v>
+        <v>87.91</v>
       </c>
       <c r="G14">
-        <v>93.65000000000001</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="H14">
         <v>0.54</v>
       </c>
       <c r="I14">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="J14">
-        <v>-13.08</v>
+        <v>-4.24</v>
       </c>
       <c r="K14">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
       <c r="L14">
-        <v>2.19</v>
+        <v>7.77</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -12644,40 +12734,40 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C15">
-        <v>1430.4</v>
+        <v>944.05</v>
       </c>
       <c r="D15">
-        <v>1437.6</v>
+        <v>947.3</v>
       </c>
       <c r="E15">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="F15">
-        <v>93.45</v>
+        <v>93.31999999999999</v>
       </c>
       <c r="G15">
-        <v>94.70999999999999</v>
+        <v>93.92</v>
       </c>
       <c r="H15">
-        <v>0.64</v>
+        <v>0.61</v>
       </c>
       <c r="I15">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="J15">
-        <v>-1.26</v>
+        <v>-0.6</v>
       </c>
       <c r="K15">
-        <v>0.09</v>
+        <v>0.34</v>
       </c>
       <c r="L15">
-        <v>5.81</v>
+        <v>7.29</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -12685,40 +12775,40 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C16">
-        <v>2840.6</v>
+        <v>1430.4</v>
       </c>
       <c r="D16">
-        <v>2857.3</v>
+        <v>1437.6</v>
       </c>
       <c r="E16">
-        <v>16.7</v>
+        <v>7.2</v>
       </c>
       <c r="F16">
-        <v>79.81</v>
+        <v>93.45</v>
       </c>
       <c r="G16">
-        <v>84.34</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="H16">
         <v>0.64</v>
       </c>
       <c r="I16">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="J16">
-        <v>-4.53</v>
+        <v>-1.26</v>
       </c>
       <c r="K16">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="L16">
-        <v>17.39</v>
+        <v>5.81</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -12726,40 +12816,40 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="C17">
-        <v>557.4</v>
+        <v>983.6</v>
       </c>
       <c r="D17">
-        <v>560</v>
+        <v>988.45</v>
       </c>
       <c r="E17">
-        <v>2.6</v>
+        <v>4.85</v>
       </c>
       <c r="F17">
-        <v>94.03</v>
+        <v>89.65000000000001</v>
       </c>
       <c r="G17">
-        <v>94.38</v>
+        <v>91.13</v>
       </c>
       <c r="H17">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="I17">
-        <v>0.52</v>
+        <v>0.63</v>
       </c>
       <c r="J17">
-        <v>-0.36</v>
+        <v>-1.48</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="L17">
-        <v>8.49</v>
+        <v>5.74</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -12767,40 +12857,40 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="C18">
-        <v>296.9</v>
+        <v>3745.2</v>
       </c>
       <c r="D18">
-        <v>299</v>
+        <v>3769.6</v>
       </c>
       <c r="E18">
-        <v>2.1</v>
+        <v>24.4</v>
       </c>
       <c r="F18">
-        <v>78.48999999999999</v>
+        <v>94.52</v>
       </c>
       <c r="G18">
-        <v>89.66</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="H18">
-        <v>0.57</v>
+        <v>0.71</v>
       </c>
       <c r="I18">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="J18">
-        <v>-11.16</v>
+        <v>-0.13</v>
       </c>
       <c r="K18">
-        <v>0.21</v>
+        <v>0.27</v>
       </c>
       <c r="L18">
-        <v>10.64</v>
+        <v>4.72</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -12808,40 +12898,40 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="C19">
-        <v>245.64</v>
+        <v>403.6</v>
       </c>
       <c r="D19">
-        <v>246.02</v>
+        <v>406.5</v>
       </c>
       <c r="E19">
-        <v>0.38</v>
+        <v>2.9</v>
       </c>
       <c r="F19">
-        <v>90.03</v>
+        <v>91.92</v>
       </c>
       <c r="G19">
-        <v>92.64</v>
+        <v>96.06999999999999</v>
       </c>
       <c r="H19">
-        <v>-0.07000000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="I19">
-        <v>-0.11</v>
+        <v>0.6</v>
       </c>
       <c r="J19">
-        <v>-2.61</v>
+        <v>-4.15</v>
       </c>
       <c r="K19">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="L19">
-        <v>1.34</v>
+        <v>4.59</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -12849,40 +12939,40 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="C20">
-        <v>282.9</v>
+        <v>145.83</v>
       </c>
       <c r="D20">
-        <v>284.7</v>
+        <v>146.49</v>
       </c>
       <c r="E20">
-        <v>1.8</v>
+        <v>0.66</v>
       </c>
       <c r="F20">
-        <v>88.13</v>
+        <v>91.67</v>
       </c>
       <c r="G20">
-        <v>92.64</v>
+        <v>93.51000000000001</v>
       </c>
       <c r="H20">
-        <v>0.51</v>
+        <v>0.33</v>
       </c>
       <c r="I20">
-        <v>0.46</v>
+        <v>-0.19</v>
       </c>
       <c r="J20">
-        <v>-4.51</v>
+        <v>-1.84</v>
       </c>
       <c r="K20">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="L20">
-        <v>19.2</v>
+        <v>4.09</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -12890,40 +12980,40 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C21">
-        <v>104.21</v>
+        <v>1539.7</v>
       </c>
       <c r="D21">
-        <v>104.74</v>
+        <v>1547.6</v>
       </c>
       <c r="E21">
-        <v>0.53</v>
+        <v>7.9</v>
       </c>
       <c r="F21">
-        <v>86.06999999999999</v>
+        <v>92.42</v>
       </c>
       <c r="G21">
-        <v>96.36</v>
+        <v>94.53</v>
       </c>
       <c r="H21">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="I21">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="J21">
-        <v>-10.29</v>
+        <v>-2.11</v>
       </c>
       <c r="K21">
-        <v>0.09</v>
+        <v>0.2</v>
       </c>
       <c r="L21">
-        <v>12.43</v>
+        <v>3.55</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -12931,40 +13021,40 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>185</v>
+        <v>54</v>
       </c>
       <c r="C22">
-        <v>132.25</v>
+        <v>501.3</v>
       </c>
       <c r="D22">
-        <v>132.8</v>
+        <v>504.05</v>
       </c>
       <c r="E22">
-        <v>0.55</v>
+        <v>2.75</v>
       </c>
       <c r="F22">
-        <v>90.42</v>
+        <v>85.89</v>
       </c>
       <c r="G22">
-        <v>92.64</v>
+        <v>91.44</v>
       </c>
       <c r="H22">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I22">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="J22">
-        <v>-2.23</v>
+        <v>-5.55</v>
       </c>
       <c r="K22">
-        <v>0.4</v>
+        <v>0.48</v>
       </c>
       <c r="L22">
-        <v>0.07000000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -12972,40 +13062,40 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>240</v>
       </c>
       <c r="C23">
-        <v>504.65</v>
+        <v>2161.6</v>
       </c>
       <c r="D23">
-        <v>507.65</v>
+        <v>2170.3</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F23">
-        <v>94.29000000000001</v>
+        <v>87.12</v>
       </c>
       <c r="G23">
-        <v>95.17</v>
+        <v>91.13</v>
       </c>
       <c r="H23">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="I23">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
-        <v>-0.88</v>
+        <v>-4.02</v>
       </c>
       <c r="K23">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="L23">
-        <v>0.44</v>
+        <v>3.42</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -13013,40 +13103,40 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>49</v>
       </c>
       <c r="C24">
-        <v>180.22</v>
+        <v>7218.5</v>
       </c>
       <c r="D24">
-        <v>181.13</v>
+        <v>7238</v>
       </c>
       <c r="E24">
-        <v>0.91</v>
+        <v>19.5</v>
       </c>
       <c r="F24">
-        <v>89.5</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="G24">
-        <v>92.94</v>
+        <v>90.48</v>
       </c>
       <c r="H24">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I24">
-        <v>0.48</v>
+        <v>0.3</v>
       </c>
       <c r="J24">
-        <v>-3.43</v>
+        <v>-4.8</v>
       </c>
       <c r="K24">
-        <v>0.1</v>
+        <v>0.28</v>
       </c>
       <c r="L24">
-        <v>0.99</v>
+        <v>3.08</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -13054,40 +13144,40 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="C25">
-        <v>421.05</v>
+        <v>873.1</v>
       </c>
       <c r="D25">
-        <v>422.7</v>
+        <v>876.4</v>
       </c>
       <c r="E25">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="F25">
-        <v>85.04000000000001</v>
+        <v>88.78</v>
       </c>
       <c r="G25">
-        <v>85.19</v>
+        <v>90.62</v>
       </c>
       <c r="H25">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I25">
-        <v>0.22</v>
+        <v>-0.09</v>
       </c>
       <c r="J25">
-        <v>-0.15</v>
+        <v>-1.84</v>
       </c>
       <c r="K25">
-        <v>0.25</v>
+        <v>0.57</v>
       </c>
       <c r="L25">
-        <v>2.01</v>
+        <v>2.37</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -13095,40 +13185,40 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>194</v>
+        <v>94</v>
       </c>
       <c r="C26">
-        <v>1539.7</v>
+        <v>514.4</v>
       </c>
       <c r="D26">
-        <v>1547.6</v>
+        <v>517.7</v>
       </c>
       <c r="E26">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="F26">
-        <v>92.42</v>
+        <v>80.56999999999999</v>
       </c>
       <c r="G26">
-        <v>94.53</v>
+        <v>93.65000000000001</v>
       </c>
       <c r="H26">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="I26">
-        <v>0.55</v>
+        <v>0.31</v>
       </c>
       <c r="J26">
-        <v>-2.11</v>
+        <v>-13.08</v>
       </c>
       <c r="K26">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="L26">
-        <v>3.55</v>
+        <v>2.19</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -13136,40 +13226,40 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C27">
-        <v>873.1</v>
+        <v>421.05</v>
       </c>
       <c r="D27">
-        <v>876.4</v>
+        <v>422.7</v>
       </c>
       <c r="E27">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="F27">
-        <v>88.78</v>
+        <v>85.04000000000001</v>
       </c>
       <c r="G27">
-        <v>90.62</v>
+        <v>85.19</v>
       </c>
       <c r="H27">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="I27">
-        <v>-0.09</v>
+        <v>0.22</v>
       </c>
       <c r="J27">
-        <v>-1.84</v>
+        <v>-0.15</v>
       </c>
       <c r="K27">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="L27">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -13177,40 +13267,40 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>205</v>
+        <v>155</v>
       </c>
       <c r="C28">
-        <v>983.6</v>
+        <v>245.64</v>
       </c>
       <c r="D28">
-        <v>988.45</v>
+        <v>246.02</v>
       </c>
       <c r="E28">
-        <v>4.85</v>
+        <v>0.38</v>
       </c>
       <c r="F28">
-        <v>89.65000000000001</v>
+        <v>90.03</v>
       </c>
       <c r="G28">
-        <v>91.13</v>
+        <v>92.64</v>
       </c>
       <c r="H28">
-        <v>0.71</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I28">
-        <v>0.63</v>
+        <v>-0.11</v>
       </c>
       <c r="J28">
-        <v>-1.48</v>
+        <v>-2.61</v>
       </c>
       <c r="K28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L28">
-        <v>5.74</v>
+        <v>1.34</v>
       </c>
       <c r="M28">
         <v>0</v>
@@ -13218,40 +13308,40 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C29">
-        <v>1208</v>
+        <v>180.22</v>
       </c>
       <c r="D29">
-        <v>1215.7</v>
+        <v>181.13</v>
       </c>
       <c r="E29">
-        <v>7.7</v>
+        <v>0.91</v>
       </c>
       <c r="F29">
-        <v>95.98</v>
+        <v>89.5</v>
       </c>
       <c r="G29">
-        <v>96.05</v>
+        <v>92.94</v>
       </c>
       <c r="H29">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="I29">
-        <v>0.61</v>
+        <v>0.48</v>
       </c>
       <c r="J29">
-        <v>-0.07000000000000001</v>
+        <v>-3.43</v>
       </c>
       <c r="K29">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="L29">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -13259,40 +13349,40 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C30">
-        <v>3745.2</v>
+        <v>504.65</v>
       </c>
       <c r="D30">
-        <v>3769.6</v>
+        <v>507.65</v>
       </c>
       <c r="E30">
-        <v>24.4</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>94.52</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="G30">
-        <v>94.65000000000001</v>
+        <v>95.17</v>
       </c>
       <c r="H30">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="I30">
-        <v>0.43</v>
+        <v>0.55</v>
       </c>
       <c r="J30">
-        <v>-0.13</v>
+        <v>-0.88</v>
       </c>
       <c r="K30">
-        <v>0.27</v>
+        <v>0.12</v>
       </c>
       <c r="L30">
-        <v>4.72</v>
+        <v>0.44</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -13300,40 +13390,40 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="C31">
-        <v>2161.6</v>
+        <v>5867</v>
       </c>
       <c r="D31">
-        <v>2170.3</v>
+        <v>5892</v>
       </c>
       <c r="E31">
-        <v>8.699999999999999</v>
+        <v>25</v>
       </c>
       <c r="F31">
-        <v>87.12</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="G31">
-        <v>91.13</v>
+        <v>94.92</v>
       </c>
       <c r="H31">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="I31">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="J31">
-        <v>-4.02</v>
+        <v>-5.67</v>
       </c>
       <c r="K31">
         <v>0.14</v>
       </c>
       <c r="L31">
-        <v>3.42</v>
+        <v>0.1</v>
       </c>
       <c r="M31">
         <v>0</v>
@@ -13341,40 +13431,40 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="C32">
-        <v>403.6</v>
+        <v>132.25</v>
       </c>
       <c r="D32">
-        <v>406.5</v>
+        <v>132.8</v>
       </c>
       <c r="E32">
-        <v>2.9</v>
+        <v>0.55</v>
       </c>
       <c r="F32">
-        <v>91.92</v>
+        <v>90.42</v>
       </c>
       <c r="G32">
-        <v>96.06999999999999</v>
+        <v>92.64</v>
       </c>
       <c r="H32">
-        <v>0.61</v>
+        <v>0.66</v>
       </c>
       <c r="I32">
-        <v>0.6</v>
+        <v>0.26</v>
       </c>
       <c r="J32">
-        <v>-4.15</v>
+        <v>-2.23</v>
       </c>
       <c r="K32">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="L32">
-        <v>4.59</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="M32">
         <v>0</v>
@@ -13431,16 +13521,34 @@
       <c r="A1" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="B3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="4" t="s">
@@ -13531,40 +13639,40 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C7">
-        <v>5775</v>
+        <v>361.4</v>
       </c>
       <c r="D7">
-        <v>5777</v>
+        <v>359.8</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>-1.6</v>
       </c>
       <c r="F7">
-        <v>92.91</v>
+        <v>92.67</v>
       </c>
       <c r="G7">
-        <v>94.65000000000001</v>
+        <v>93.14</v>
       </c>
       <c r="H7">
-        <v>0.09</v>
+        <v>-0.33</v>
       </c>
       <c r="I7">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="J7">
-        <v>-1.74</v>
+        <v>-0.47</v>
       </c>
       <c r="K7">
-        <v>-0.29</v>
+        <v>-0.61</v>
       </c>
       <c r="L7">
-        <v>-0.59</v>
+        <v>-8.41</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -13654,40 +13762,40 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="C10">
-        <v>361.4</v>
+        <v>5070.5</v>
       </c>
       <c r="D10">
-        <v>359.8</v>
+        <v>5067</v>
       </c>
       <c r="E10">
-        <v>-1.6</v>
+        <v>-3.5</v>
       </c>
       <c r="F10">
-        <v>92.67</v>
+        <v>94.98</v>
       </c>
       <c r="G10">
-        <v>93.14</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H10">
-        <v>-0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I10">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J10">
-        <v>-0.47</v>
+        <v>-0.12</v>
       </c>
       <c r="K10">
-        <v>-0.61</v>
+        <v>-0.31</v>
       </c>
       <c r="L10">
-        <v>-8.41</v>
+        <v>-2.03</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -13695,40 +13803,40 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>5070.5</v>
+        <v>5775</v>
       </c>
       <c r="D11">
-        <v>5067</v>
+        <v>5777</v>
       </c>
       <c r="E11">
-        <v>-3.5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>94.98</v>
+        <v>92.91</v>
       </c>
       <c r="G11">
-        <v>95.09999999999999</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="H11">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="I11">
-        <v>0.5600000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="J11">
-        <v>-0.12</v>
+        <v>-1.74</v>
       </c>
       <c r="K11">
-        <v>-0.31</v>
+        <v>-0.29</v>
       </c>
       <c r="L11">
-        <v>-2.03</v>
+        <v>-0.59</v>
       </c>
       <c r="M11">
         <v>0</v>
